--- a/src/attributions/attributions_saliency_traj_422.xlsx
+++ b/src/attributions/attributions_saliency_traj_422.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002656161959748715</v>
+        <v>0.0002155919646611437</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002639260201249272</v>
+        <v>0.004431049339473248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001670808997005224</v>
+        <v>1.266773324459791e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003170050331391394</v>
+        <v>0.001341668074019253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000681244651786983</v>
+        <v>0.0009791234042495489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003681231464724988</v>
+        <v>0.001794604118913412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002783032250590622</v>
+        <v>0.000539504864718765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001159516046755016</v>
+        <v>0.00148527161218226</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005133598460815847</v>
+        <v>0.004043170250952244</v>
       </c>
       <c r="J2" t="n">
-        <v>5.371149018174037e-05</v>
+        <v>0.001432707766070962</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003666141128633171</v>
+        <v>0.002975164679810405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001472587580792606</v>
+        <v>0.000129326363094151</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0007675517117604613</v>
+        <v>0.003652267158031464</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006578371394425631</v>
+        <v>0.0002643074840307236</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004316355916671455</v>
+        <v>0.0004955248441547155</v>
       </c>
       <c r="P2" t="n">
-        <v>7.077772170305252e-05</v>
+        <v>0.0005114019731990993</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001450844691134989</v>
+        <v>0.0008480206015519798</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000893924618139863</v>
+        <v>0.004018250852823257</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001223051513079554</v>
+        <v>0.0007603877456858754</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008343575755134225</v>
+        <v>0.0004378226585686207</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001177558733616024</v>
+        <v>0.0005616855341941118</v>
       </c>
       <c r="V2" t="n">
-        <v>7.970330625539646e-05</v>
+        <v>0.0005366375553421676</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0003903336473740637</v>
+        <v>0.000854567508213222</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0002115934184985235</v>
+        <v>0.001873340224847198</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0003045055491384119</v>
+        <v>0.0001038798654917628</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002775361062958837</v>
+        <v>2.764394594123587e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.599461241625249e-05</v>
+        <v>0.0009229263523593545</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.24178210273385e-05</v>
+        <v>0.001570932334288955</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001042626536218449</v>
+        <v>0.0001986609422601759</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.27870979567524e-05</v>
+        <v>0.002928568283095956</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0001898711489047855</v>
+        <v>3.285470302216709e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0003809994377661496</v>
+        <v>0.0008877734653651714</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0001846459490479901</v>
+        <v>0.0001877165632322431</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001996034261537716</v>
+        <v>0.0005391462473198771</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001744439214235172</v>
+        <v>0.0003313844790682197</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0006485655321739614</v>
+        <v>0.0002720585907809436</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.963689520489424e-05</v>
+        <v>0.0002704470243770629</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001424605725333095</v>
+        <v>0.0005772089352831244</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0003130446712020785</v>
+        <v>0.0006117236334830523</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.532165131531656e-05</v>
+        <v>0.000120631288154982</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0004409175890032202</v>
+        <v>0.0004222419229336083</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.363632852910087e-05</v>
+        <v>0.0006657246267423034</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001056438268278725</v>
+        <v>0.0005194254335947335</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0001731074880808592</v>
+        <v>0.0002316124737262726</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0001368720695609227</v>
+        <v>0.0003898937429767102</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.586058978224173e-05</v>
+        <v>0.0009387093596160412</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0002093126240652055</v>
+        <v>0.005089877638965845</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0008261208422482014</v>
+        <v>0.0005043558776378632</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0003875403199344873</v>
+        <v>0.0006639928906224668</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003085267962887883</v>
+        <v>0.004208380822092295</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0002744524099398404</v>
+        <v>0.0004513869062066078</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.002974285162054e-05</v>
+        <v>0.001320406794548035</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.000683589605614543</v>
+        <v>0.001225942745804787</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.881085336208344e-05</v>
+        <v>0.0004230733029544353</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.29215251642745e-05</v>
+        <v>0.0003606755926739424</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0002856451901607215</v>
+        <v>0.001207426772452891</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0004133985203225166</v>
+        <v>0.0001402654743287712</v>
       </c>
       <c r="BF2" t="n">
-        <v>6.284669507294893e-05</v>
+        <v>0.0007447302923537791</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0002763955853879452</v>
+        <v>0.0003276608476880938</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001120888337027282</v>
+        <v>0.002289447467774153</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0003001121513079852</v>
+        <v>0.0006572995916940272</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0005523415165953338</v>
+        <v>0.002574752550572157</v>
       </c>
       <c r="BK2" t="n">
-        <v>5.147237243363634e-05</v>
+        <v>0.0043280771933496</v>
       </c>
       <c r="BL2" t="n">
-        <v>9.69698594417423e-05</v>
+        <v>0.0001045617027557455</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0002882996923290193</v>
+        <v>0.0009488529176451266</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.000266617484157905</v>
+        <v>0.0006462202873080969</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0001024513330776244</v>
+        <v>2.248381497338414e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001457143080187961</v>
+        <v>0.003516587894409895</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0002488363243173808</v>
+        <v>0.00030761823290959</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001474637538194656</v>
+        <v>0.0007729268399998546</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0004415776929818094</v>
+        <v>1.004547812044621e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0003939085872843862</v>
+        <v>0.0008852790342643857</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001528844586573541</v>
+        <v>0.000412003428209573</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001185975124826655</v>
+        <v>0.002670361194759607</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0006567329983226955</v>
+        <v>0.001357770408503711</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.447716178721748e-05</v>
+        <v>0.0001117944484576583</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0005249744281172752</v>
+        <v>0.001015482121147215</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001038879563566297</v>
+        <v>0.0002613741671666503</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.881065590074286e-05</v>
+        <v>1.830574910854921e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0003472027601674199</v>
+        <v>0.001252709655091166</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0003032888926099986</v>
+        <v>0.001398856285959482</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0002300183405168355</v>
+        <v>0.0001793784758774564</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0001159055391326547</v>
+        <v>0.0007701268186792731</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0002904679859057069</v>
+        <v>0.0005370479775592685</v>
       </c>
       <c r="CG2" t="n">
-        <v>7.398705201921985e-05</v>
+        <v>2.751057036221027e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001277434930671006</v>
+        <v>0.0004910914576612413</v>
       </c>
       <c r="CI2" t="n">
-        <v>2.176143243559636e-05</v>
+        <v>0.0003472285461612046</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0001099205910577439</v>
+        <v>0.0003443769528530538</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0002105930907418951</v>
+        <v>0.0005259243189357221</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0001436956226825714</v>
+        <v>0.001186338486149907</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.925566412974149e-05</v>
+        <v>0.002002830151468515</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0002977875992655754</v>
+        <v>0.0005118179251439869</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0001433453289791942</v>
+        <v>3.854477836284786e-05</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0003542187332641333</v>
+        <v>0.0003813976072706282</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0004258143017068505</v>
+        <v>0.002779203001409769</v>
       </c>
       <c r="CR2" t="n">
-        <v>7.542433013441041e-05</v>
+        <v>0.0005784774548374116</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0001419802865711972</v>
+        <v>0.0001099068758776411</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0004139888333156705</v>
+        <v>0.001483248081058264</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0004542854148894548</v>
+        <v>0.0007950545405037701</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003095944412052631</v>
+        <v>0.0001850002881838009</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0001009593470371328</v>
+        <v>0.0008601949666626751</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0003314443456474692</v>
+        <v>0.0003729640156961977</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.553769470774569e-05</v>
+        <v>0.0001748163485899568</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2.889569805120118e-05</v>
+        <v>0.0003206019755452871</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.670379737741314e-05</v>
+        <v>0.0002414303598925471</v>
       </c>
       <c r="DB2" t="n">
-        <v>6.190689600771293e-05</v>
+        <v>0.0003917056601494551</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001510678848717362</v>
+        <v>0.0002429404703434557</v>
       </c>
       <c r="DD2" t="n">
-        <v>6.552040758833755e-06</v>
+        <v>0.0009039980359375477</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0004882212087977678</v>
+        <v>0.001081596477888525</v>
       </c>
       <c r="DF2" t="n">
-        <v>9.629662235965952e-05</v>
+        <v>0.0005145439645275474</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.000304061541100964</v>
+        <v>0.001177247380837798</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0008872382459230721</v>
+        <v>0.000124861195217818</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0001089994475478306</v>
+        <v>0.0005006263963878155</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0004157579387538135</v>
+        <v>1.046631950885057e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.294600951950997e-05</v>
+        <v>0.001231518224813044</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001263717713300139</v>
+        <v>0.002388826105743647</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0002312853321200237</v>
+        <v>1.776077260728925e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.000122761121019721</v>
+        <v>0.0005681615439243615</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0001770640665199608</v>
+        <v>0.0002700259792618454</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0002089161571348086</v>
+        <v>0.0005627538776025176</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.488105383235961e-05</v>
+        <v>0.0005466952570714056</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001517685304861516</v>
+        <v>0.0008706989465281367</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0002540919522289187</v>
+        <v>0.0003892431850545108</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.481496292399243e-05</v>
+        <v>0.0004164804704487324</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0001096494524972513</v>
+        <v>4.18387062381953e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0003629793936852366</v>
+        <v>0.0009427813347429037</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0001027199105010368</v>
+        <v>1.005050580715761e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.923220017692074e-05</v>
+        <v>0.002930293325334787</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.485281872097403e-05</v>
+        <v>0.0004292524245101959</v>
       </c>
       <c r="DZ2" t="n">
-        <v>4.062939842697233e-05</v>
+        <v>0.0004067316767759621</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0002265890943817794</v>
+        <v>0.0008015744388103485</v>
       </c>
       <c r="EB2" t="n">
-        <v>4.644560976885259e-05</v>
+        <v>0.001133178710006177</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001906470279209316</v>
+        <v>0.00048359643551521</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0004528204735834152</v>
+        <v>0.0009428769699297845</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.111337951442692e-05</v>
+        <v>0.0003109491954091936</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0002351464063394815</v>
+        <v>0.0001595536014065146</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001997490180656314</v>
+        <v>0.0005954737425781786</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001383511553285643</v>
+        <v>0.0008758426993153989</v>
       </c>
       <c r="EI2" t="n">
-        <v>8.427163993474096e-05</v>
+        <v>0.0001282292068935931</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0005981427384540439</v>
+        <v>0.0002988156047649682</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001149474119301885</v>
+        <v>0.000169788661878556</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.874638448702171e-05</v>
+        <v>0.0006944468477740884</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0002601805317681283</v>
+        <v>0.0003810201596934348</v>
       </c>
       <c r="EN2" t="n">
-        <v>3.249758810852654e-05</v>
+        <v>0.001269770902581513</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0002479608519934118</v>
+        <v>0.0001307915954384953</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001040159768308513</v>
+        <v>0.0008235473069362342</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0001503651146776974</v>
+        <v>0.000486317032482475</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0003784483706112951</v>
+        <v>0.0004358428122941405</v>
       </c>
       <c r="ES2" t="n">
-        <v>9.991032129619271e-05</v>
+        <v>0.0003601694770622998</v>
       </c>
       <c r="ET2" t="n">
-        <v>9.897472045850009e-05</v>
+        <v>0.0005511401686817408</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002213444386143237</v>
+        <v>0.0005606490303762257</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0003458546125330031</v>
+        <v>0.0004592229379341006</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0003305859281681478</v>
+        <v>0.001047511119395494</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0001796397555153817</v>
+        <v>0.0005463332636281848</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0001794565177988261</v>
+        <v>0.001152456388808787</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0003019475843757391</v>
+        <v>0.000309952738462016</v>
       </c>
       <c r="FA2" t="n">
-        <v>8.11921781860292e-05</v>
+        <v>9.028844942804426e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>2.548839256633073e-05</v>
+        <v>0.0002458611270412803</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.452497761230916e-05</v>
+        <v>0.0001265252940356731</v>
       </c>
       <c r="FD2" t="n">
-        <v>9.205687820212916e-05</v>
+        <v>0.0003416935505811125</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0002080117119476199</v>
+        <v>0.0002356917248107493</v>
       </c>
       <c r="FF2" t="n">
-        <v>6.318442319752648e-05</v>
+        <v>0.0008704854408279061</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0004420973127707839</v>
+        <v>0.000195232845726423</v>
       </c>
       <c r="FH2" t="n">
-        <v>4.340669693192467e-05</v>
+        <v>0.0007206548471003771</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0004264356975909323</v>
+        <v>0.0003484574554022402</v>
       </c>
       <c r="FJ2" t="n">
-        <v>7.702513539697975e-05</v>
+        <v>0.0006700365920551121</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002870418829843402</v>
+        <v>0.0003096114087384194</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001546069543110207</v>
+        <v>0.0003804451553151011</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0002521674323361367</v>
+        <v>0.0004371973918750882</v>
       </c>
       <c r="FN2" t="n">
-        <v>4.446939419722185e-05</v>
+        <v>0.0002216116699855775</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0002751376596279442</v>
+        <v>0.0001453793083783239</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0009073246619664133</v>
+        <v>0.0006018358981236815</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001334460830548778</v>
+        <v>0.0007240127306431532</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0006239093490876257</v>
+        <v>0.0003288724983576685</v>
       </c>
       <c r="FS2" t="n">
-        <v>5.246937143965624e-05</v>
+        <v>0.0001558098010718822</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001101788366213441</v>
+        <v>0.001073061837814748</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.915319055318832e-05</v>
+        <v>0.0006071945535950363</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0001552080502733588</v>
+        <v>0.001336415181867778</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0001779247977538034</v>
+        <v>0.0009053269168362021</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0004122407117392868</v>
+        <v>0.0005174567922949791</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.000194744614418596</v>
+        <v>0.0006586218951269984</v>
       </c>
       <c r="FZ2" t="n">
-        <v>3.29069298459217e-05</v>
+        <v>0.0005153685924597085</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.023100776365027e-05</v>
+        <v>0.0008570888312533498</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0004262538277544081</v>
+        <v>0.001252405811101198</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001657622342463583</v>
+        <v>0.0009455089457333088</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.000270210497546941</v>
+        <v>0.0007054050220176578</v>
       </c>
       <c r="GE2" t="n">
-        <v>7.118161011021584e-05</v>
+        <v>5.470159157994203e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0004283937159925699</v>
+        <v>0.000588915660046041</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001147090442827903</v>
+        <v>0.0004558238724712282</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002899269573390484</v>
+        <v>0.0008425859268754721</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02100943028926849</v>
+        <v>0.02685588598251343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1587319672107697</v>
+        <v>0.004895880352705717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04678640142083168</v>
+        <v>7.589894812554121e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0323542058467865</v>
+        <v>0.01061203610152006</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03307486325502396</v>
+        <v>0.000933332834392786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007999643683433533</v>
+        <v>0.0140829011797905</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03704702109098434</v>
+        <v>0.002267923671752214</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0303227212280035</v>
+        <v>0.001703810994513333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005071086809039116</v>
+        <v>0.005541552323848009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04358045756816864</v>
+        <v>0.02080560848116875</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1779022514820099</v>
+        <v>0.005194226279854774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05999302119016647</v>
+        <v>0.01338686794042587</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02926637791097164</v>
+        <v>0.01127468980848789</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03511827811598778</v>
+        <v>0.001178568694740534</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01997337490320206</v>
+        <v>0.01024965103715658</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05711338296532631</v>
+        <v>0.001168751274235547</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03371461480855942</v>
+        <v>0.002294735983014107</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0134764714166522</v>
+        <v>0.005223594140261412</v>
       </c>
       <c r="T5" t="n">
-        <v>0.008613687008619308</v>
+        <v>0.008286934345960617</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00486289244145155</v>
+        <v>0.001316059147939086</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004075851291418076</v>
+        <v>0.007491767406463623</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01126456074416637</v>
+        <v>0.01015791390091181</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02745935134589672</v>
+        <v>0.003830863162875175</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.009353525936603546</v>
+        <v>0.002300536958500743</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009337332099676132</v>
+        <v>0.000241457368247211</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01343657169491053</v>
+        <v>0.00111926649697125</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01305744238197803</v>
+        <v>0.006173940375447273</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.008491856977343559</v>
+        <v>0.005757601000368595</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01545265037566423</v>
+        <v>0.006619761697947979</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0150475911796093</v>
+        <v>0.001675230800174177</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01892141997814178</v>
+        <v>0.003994119819253683</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.04061905294656754</v>
+        <v>0.000883965753018856</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.01133699622005224</v>
+        <v>0.0009918727446347475</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.004429924301803112</v>
+        <v>0.005675169173628092</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.04796634614467621</v>
+        <v>0.002130649285390973</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.001122074434533715</v>
+        <v>0.001817743526771665</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.01159853953868151</v>
+        <v>0.004331212025135756</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02479993924498558</v>
+        <v>0.0004931694129481912</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.006749887950718403</v>
+        <v>0.003041088348254561</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.02427760139107704</v>
+        <v>0.003501627361401916</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02497716061770916</v>
+        <v>0.002368035260587931</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01358374580740929</v>
+        <v>0.001588982879184186</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0004552686586976051</v>
+        <v>0.0006744901183992624</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.005427006632089615</v>
+        <v>0.0009407157194800675</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.000355428084731102</v>
+        <v>0.005920986644923687</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.03413840383291245</v>
+        <v>0.01826352439820766</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05632070451974869</v>
+        <v>0.002509862883016467</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0237323809415102</v>
+        <v>0.009475318714976311</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.007812038064002991</v>
+        <v>0.007160515524446964</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003216701559722424</v>
+        <v>0.00201483559794724</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.03428412973880768</v>
+        <v>0.0119820749387145</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.05478531867265701</v>
+        <v>0.001591176027432084</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.02421619929373264</v>
+        <v>0.002186414087191224</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001599539071321487</v>
+        <v>0.0006736595532856882</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.00566533487290144</v>
+        <v>0.005923304706811905</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.04398779571056366</v>
+        <v>0.005408295895904303</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.04181079566478729</v>
+        <v>0.006024409085512161</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.05240108072757721</v>
+        <v>0.01232339628040791</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.003568352665752172</v>
+        <v>0.000345053500495851</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.01597358658909798</v>
+        <v>0.0009599190670996904</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01972848549485207</v>
+        <v>0.0009424332529306412</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01109027490019798</v>
+        <v>0.004188835620880127</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.002081903629004955</v>
+        <v>0.001633672742173076</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01651736721396446</v>
+        <v>0.005208981689065695</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.04013825207948685</v>
+        <v>0.0004920962965115905</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0094626285135746</v>
+        <v>0.0008592422818765044</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02720749750733376</v>
+        <v>0.006853310391306877</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.01316060218960047</v>
+        <v>0.002776531968265772</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01399949751794338</v>
+        <v>0.004609922412782907</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.006334796082228422</v>
+        <v>0.005511193070560694</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.003184796776622534</v>
+        <v>0.003286293707787991</v>
       </c>
       <c r="BU5" t="n">
-        <v>8.168816566467285e-05</v>
+        <v>0.001516449498012662</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.005100531037896872</v>
+        <v>0.006962162908166647</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.02784778922796249</v>
+        <v>0.004377250093966722</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0210574995726347</v>
+        <v>0.00609309459105134</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.009995130822062492</v>
+        <v>0.005572014488279819</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.03728105872869492</v>
+        <v>0.002247546100988984</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.02914193272590637</v>
+        <v>0.006364106666296721</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02227134443819523</v>
+        <v>0.004661426413804293</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01277796737849712</v>
+        <v>0.001838328782469034</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.003715305589139462</v>
+        <v>0.001373413833789527</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.02352831326425076</v>
+        <v>0.005083187948912382</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.03573606908321381</v>
+        <v>0.0009264855762012303</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.007110960781574249</v>
+        <v>0.001298598712310195</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.002808553632348776</v>
+        <v>0.0014182657469064</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01334848441183567</v>
+        <v>0.00119773845653981</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.01991578005254269</v>
+        <v>0.00266182073391974</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01373559515923262</v>
+        <v>0.001317038317210972</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.002740547060966492</v>
+        <v>0.0007579228840768337</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.006331550423055887</v>
+        <v>0.005298933945596218</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.02904444374144077</v>
+        <v>0.003044716082513332</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01069025229662657</v>
+        <v>0.000355864962330088</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01800617203116417</v>
+        <v>0.006378103047609329</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.02965598925948143</v>
+        <v>0.007154806982725859</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.01227557566016912</v>
+        <v>0.0009367531165480614</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.001864090794697404</v>
+        <v>5.403249815572053e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.008604268543422222</v>
+        <v>0.0003221235238015652</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0281766764819622</v>
+        <v>0.002809061203151941</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004405053332448006</v>
+        <v>0.001629790756851435</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01831188797950745</v>
+        <v>0.004658473655581474</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.03283059597015381</v>
+        <v>0.0006471340311691165</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.006225807592272758</v>
+        <v>0.0004666517779696733</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001387050375342369</v>
+        <v>4.63991891592741e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.01215844135731459</v>
+        <v>0.001465707318857312</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.01699794828891754</v>
+        <v>0.003392324782907963</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01486082561314106</v>
+        <v>0.00250915577635169</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.005144069902598858</v>
+        <v>0.0005474092904478312</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.006345836445689201</v>
+        <v>0.006463177502155304</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.03707851469516754</v>
+        <v>0.003587478073313832</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01038454286754131</v>
+        <v>0.001610424951650202</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.004502709023654461</v>
+        <v>0.007386378478258848</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01235287636518478</v>
+        <v>0.001375742140226066</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.03095992840826511</v>
+        <v>0.004147060215473175</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.03702060133218765</v>
+        <v>0.00104322237893939</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.006312713027000427</v>
+        <v>0.005766779184341431</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00733270077034831</v>
+        <v>0.003256018972024322</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0001177655649371445</v>
+        <v>0.005069232080131769</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.04622647911310196</v>
+        <v>0.0004720048746094108</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.008047132752835751</v>
+        <v>0.001993652433156967</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.008636411279439926</v>
+        <v>0.001028117490932345</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.00416858633980155</v>
+        <v>0.002002374734729528</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.02083011344075203</v>
+        <v>0.0005976968677714467</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.02200999669730663</v>
+        <v>0.001688213902525604</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.03100653737783432</v>
+        <v>0.0004654473159462214</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.001738687278702855</v>
+        <v>0.00338881416246295</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.007058502174913883</v>
+        <v>0.001279383897781372</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.03014454059302807</v>
+        <v>0.01180959213525057</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01029588282108307</v>
+        <v>0.0006517812144011259</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.007512061856687069</v>
+        <v>0.000729691528249532</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001280334312468767</v>
+        <v>0.003188299247995019</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.01575463451445103</v>
+        <v>0.002100627869367599</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.005363591015338898</v>
+        <v>0.0007929700659587979</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.01375751383602619</v>
+        <v>0.002011274453252554</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.005373265128582716</v>
+        <v>0.002512488281354308</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.004005145281553268</v>
+        <v>0.001986958784982562</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.01152060925960541</v>
+        <v>0.002625858876854181</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.03808390349149704</v>
+        <v>0.0004221161943860352</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.02560718171298504</v>
+        <v>0.0009546263609081507</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.00804629735648632</v>
+        <v>0.001350143691524863</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02685166895389557</v>
+        <v>0.001036546658724546</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.01095142308622599</v>
+        <v>0.005320754833519459</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001038528280332685</v>
+        <v>0.000674055831041187</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.00580366188660264</v>
+        <v>0.001303532277233899</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.002176105044782162</v>
+        <v>0.002335686702281237</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.007442371919751167</v>
+        <v>0.003084048861637712</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.006802576128393412</v>
+        <v>0.002623733133077621</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.01380053162574768</v>
+        <v>0.0009541737381368876</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01161501556634903</v>
+        <v>0.003406671807169914</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01284552272409201</v>
+        <v>0.0005877787480130792</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.02180394902825356</v>
+        <v>0.001580771873705089</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0229450911283493</v>
+        <v>0.0007428213721141219</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.02024487219750881</v>
+        <v>0.0002662597980815917</v>
       </c>
       <c r="EX5" t="n">
-        <v>5.047387458034791e-05</v>
+        <v>0.003145220689475536</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.01846934482455254</v>
+        <v>0.005432725418359041</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.03315827623009682</v>
+        <v>0.0002507623285055161</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.007511688396334648</v>
+        <v>0.0006586817326024175</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.000822397181764245</v>
+        <v>1.077089109458029e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.007086003664880991</v>
+        <v>0.0006096095312386751</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.01506939902901649</v>
+        <v>0.003348905127495527</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01529944781213999</v>
+        <v>0.001574693247675896</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.002625621855258942</v>
+        <v>4.848162643611431e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.01482632197439671</v>
+        <v>0.001604394055902958</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.03565438836812973</v>
+        <v>0.0006203379016369581</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.04267995059490204</v>
+        <v>0.00199664244428277</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002870376221835613</v>
+        <v>0.0007904820377007127</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.02500008977949619</v>
+        <v>0.005112519953399897</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.03650208935141563</v>
+        <v>0.00273597170598805</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.005485331639647484</v>
+        <v>0.0005067643360234797</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.001878863666206598</v>
+        <v>0.002490804065018892</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.002410988323390484</v>
+        <v>0.005650835111737251</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01234030723571777</v>
+        <v>0.00341459084302187</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0439092181622982</v>
+        <v>0.00618450902402401</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01496125943958759</v>
+        <v>0.0002122103469446301</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006587843410670757</v>
+        <v>0.0009831320494413376</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01316689699888229</v>
+        <v>0.005159115418791771</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.03409292548894882</v>
+        <v>0.00219886633567512</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.01424067839980125</v>
+        <v>0.0008123354054987431</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.007620512973517179</v>
+        <v>0.007552535273134708</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.02598834410309792</v>
+        <v>0.003048954764381051</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.01732593774795532</v>
+        <v>0.004554158542305231</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.00163831003010273</v>
+        <v>0.001430742908269167</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.02774745970964432</v>
+        <v>0.002065435284748673</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003700846340507269</v>
+        <v>0.002875034231692553</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.01335145719349384</v>
+        <v>0.005904316436499357</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.004130110610276461</v>
+        <v>0.002498074201866984</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02481072954833508</v>
+        <v>0.0003045268822461367</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.004234339576214552</v>
+        <v>0.008910414762794971</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.02562765032052994</v>
+        <v>0.0003177616745233536</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3244215250015259</v>
+        <v>0.003100740257650614</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01351115852594376</v>
+        <v>0.07922438532114029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4672824740409851</v>
+        <v>0.008488338440656662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1324431747198105</v>
+        <v>0.03961693495512009</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4345112442970276</v>
+        <v>0.008573355153203011</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1051958128809929</v>
+        <v>0.009154121391475201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1307173520326614</v>
+        <v>0.003490533214062452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1101627200841904</v>
+        <v>0.0001792190741980448</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09270323067903519</v>
+        <v>0.004415962845087051</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3488549292087555</v>
+        <v>0.007451680488884449</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01797596737742424</v>
+        <v>0.06366740167140961</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4677062034606934</v>
+        <v>0.002032344695180655</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1455661952495575</v>
+        <v>0.04579509794712067</v>
       </c>
       <c r="N7" t="n">
-        <v>0.272038996219635</v>
+        <v>0.01247865334153175</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0608210489153862</v>
+        <v>0.004422431811690331</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09397111833095551</v>
+        <v>0.0008278093300759792</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.218619704246521</v>
+        <v>0.01144849509000778</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1479563564062119</v>
+        <v>0.00327346078120172</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01168720331043005</v>
+        <v>0.003381264396011829</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1283798515796661</v>
+        <v>0.01865343935787678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005709338933229446</v>
+        <v>0.005703610833734274</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06207987293601036</v>
+        <v>0.002869413234293461</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0596054345369339</v>
+        <v>0.01526954770088196</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005656165070831776</v>
+        <v>0.01526314206421375</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03463482484221458</v>
+        <v>0.008336039260029793</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.05534831434488297</v>
+        <v>0.0004005094524472952</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0196550190448761</v>
+        <v>0.002889523981139064</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0132701899856329</v>
+        <v>0.01148653868585825</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01094625890254974</v>
+        <v>0.01490576565265656</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01668412983417511</v>
+        <v>0.002108669141307473</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02238508313894272</v>
+        <v>0.002456111833453178</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.07092225551605225</v>
+        <v>0.008868776261806488</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.06156300008296967</v>
+        <v>0.01387561298906803</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.02350835502147675</v>
+        <v>0.004942834377288818</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.06986139714717865</v>
+        <v>0.002104293555021286</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.07865633070468903</v>
+        <v>0.002508980222046375</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0648818165063858</v>
+        <v>0.002065436216071248</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1493871361017227</v>
+        <v>0.007628517691046</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.05658600479364395</v>
+        <v>0.001735749538056552</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02241630107164383</v>
+        <v>0.0003588430117815733</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01372052356600761</v>
+        <v>0.00127931241877377</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03860484436154366</v>
+        <v>0.007668221369385719</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.001919320784509182</v>
+        <v>0.004838948603719473</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0561283677816391</v>
+        <v>0.001441145897842944</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.03176909312605858</v>
+        <v>0.001020223135128617</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1676705628633499</v>
+        <v>0.008981221355497837</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1751009672880173</v>
+        <v>0.04395207762718201</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2784841954708099</v>
+        <v>0.001252566929906607</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.00886031799018383</v>
+        <v>0.01221360266208649</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0445910319685936</v>
+        <v>0.002865887712687254</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0965828150510788</v>
+        <v>0.0004519675858318806</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.05451057851314545</v>
+        <v>0.00281657068990171</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.09659130126237869</v>
+        <v>0.004371279384940863</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.006269377656280994</v>
+        <v>0.003723202738910913</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.02192241325974464</v>
+        <v>0.002795969601720572</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.009441159665584564</v>
+        <v>0.01720991730690002</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1343174129724503</v>
+        <v>0.01014483440667391</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.115087129175663</v>
+        <v>0.008727729320526123</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.273595780134201</v>
+        <v>0.02078503556549549</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1023036018013954</v>
+        <v>0.004989166744053364</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0368223562836647</v>
+        <v>0.00854277890175581</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.10375015437603</v>
+        <v>0.005988303106278181</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.02170388214290142</v>
+        <v>0.0003457042621448636</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0551917776465416</v>
+        <v>0.006372741423547268</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.076083704829216</v>
+        <v>0.00706573249772191</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1287462115287781</v>
+        <v>0.001061136368662119</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.04288721457123756</v>
+        <v>0.007407818920910358</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05324613675475121</v>
+        <v>0.006799886003136635</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1557112634181976</v>
+        <v>0.006992226932197809</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.02545357868075371</v>
+        <v>0.001607946236617863</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0581723190844059</v>
+        <v>0.006959615275263786</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.005777826998382807</v>
+        <v>0.008490923792123795</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1697872430086136</v>
+        <v>0.006713859271258116</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.08978092670440674</v>
+        <v>0.02321001887321472</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1266163289546967</v>
+        <v>0.005642067175358534</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06730242818593979</v>
+        <v>0.004659474361687899</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.09805150330066681</v>
+        <v>0.008409378118813038</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1248583495616913</v>
+        <v>0.004999835509806871</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.006507555022835732</v>
+        <v>0.0001074419124051929</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.06633395701646805</v>
+        <v>0.001300318632274866</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01734849438071251</v>
+        <v>0.001146940747275949</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.06708739697933197</v>
+        <v>0.001581042190082371</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.1062242388725281</v>
+        <v>0.01280754338949919</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.08761025220155716</v>
+        <v>0.0009196438477374613</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.01919135823845863</v>
+        <v>0.004174388945102692</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.08236946910619736</v>
+        <v>0.003393570194020867</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0009620336350053549</v>
+        <v>0.002095500705763698</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.03992465510964394</v>
+        <v>0.002247847616672516</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.02887118980288506</v>
+        <v>0.001131002674810588</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01022779382765293</v>
+        <v>0.0008860751986503601</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.01896556839346886</v>
+        <v>0.009574484080076218</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.03954510390758514</v>
+        <v>0.0009180603665299714</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.03988871350884438</v>
+        <v>0.0014261978212744</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.09060351550579071</v>
+        <v>0.01240950915962458</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1233786791563034</v>
+        <v>0.01270218379795551</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.04241029545664787</v>
+        <v>0.008272504433989525</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.08982118219137192</v>
+        <v>0.00460236007347703</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.02328478544950485</v>
+        <v>0.005010878201574087</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.02532390132546425</v>
+        <v>0.0009036865085363388</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.05630607157945633</v>
+        <v>0.0006328020244836807</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.1115176975727081</v>
+        <v>0.01269289199262857</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.09155247360467911</v>
+        <v>0.002820648951455951</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.009815912693738937</v>
+        <v>0.00528836390003562</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.1276148557662964</v>
+        <v>0.003338920418173075</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01880431547760963</v>
+        <v>0.004682315979152918</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.04191938042640686</v>
+        <v>0.003243695246055722</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.02863273769617081</v>
+        <v>0.001564135192893445</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.02052373439073563</v>
+        <v>0.001555827329866588</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.06062828749418259</v>
+        <v>0.004471981432288885</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.3062389194965363</v>
+        <v>0.02825818210840225</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.1029334887862206</v>
+        <v>0.001594287808984518</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.06152338534593582</v>
+        <v>0.001892245374619961</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01312490832060575</v>
+        <v>0.00604261364787817</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0441330224275589</v>
+        <v>0.006677206605672836</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.05170420929789543</v>
+        <v>0.001133104786276817</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.06038092449307442</v>
+        <v>0.0008350361604243517</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.06431644409894943</v>
+        <v>0.005966129247099161</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.05330369248986244</v>
+        <v>0.0003470191149972379</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.08958329260349274</v>
+        <v>0.005718579050153494</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.02827349677681923</v>
+        <v>0.006581519264727831</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01431262958794832</v>
+        <v>0.0008712796261534095</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04031023010611534</v>
+        <v>0.006277271546423435</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.07112012803554535</v>
+        <v>0.005449147894978523</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.01520396023988724</v>
+        <v>0.00179557385854423</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.06825034320354462</v>
+        <v>0.005268468521535397</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01726556569337845</v>
+        <v>0.001144124544225633</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02584068290889263</v>
+        <v>0.000305098423268646</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.05903785675764084</v>
+        <v>0.008190032094717026</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.06534360349178314</v>
+        <v>0.005294985137879848</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01011301018297672</v>
+        <v>0.001513347029685974</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1468231230974197</v>
+        <v>0.0009304403210990131</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.02175162173807621</v>
+        <v>0.008219517767429352</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0389789417386055</v>
+        <v>0.0007698491681367159</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.06311584264039993</v>
+        <v>0.002348256297409534</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.05386997386813164</v>
+        <v>0.004595794714987278</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.09949294477701187</v>
+        <v>0.001576674869284034</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.04201798886060715</v>
+        <v>0.005272373557090759</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.08118312060832977</v>
+        <v>0.003836165182292461</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.009021308273077011</v>
+        <v>0.00422554649412632</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.06063191220164299</v>
+        <v>0.004007249139249325</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.122110441327095</v>
+        <v>0.006108065601438284</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.02310640551149845</v>
+        <v>0.003351205261424184</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.03205898776650429</v>
+        <v>0.002527350559830666</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.04321370646357536</v>
+        <v>0.002788611687719822</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001262806355953217</v>
+        <v>0.0006955937133170664</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.09005887061357498</v>
+        <v>0.01423454843461514</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.06380179524421692</v>
+        <v>0.003999031614512205</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.001268450170755386</v>
+        <v>0.0001956442429218441</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1393389105796814</v>
+        <v>0.003674129955470562</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.1134474873542786</v>
+        <v>0.005515723489224911</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.09081143140792847</v>
+        <v>0.003438486251980066</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.05236083641648293</v>
+        <v>0.002695849165320396</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0008161354344338179</v>
+        <v>0.0001202750718221068</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.06945398449897766</v>
+        <v>0.00152377865742892</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.09111371636390686</v>
+        <v>0.01443052850663662</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.1006148308515549</v>
+        <v>0.00122794636990875</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01063552498817444</v>
+        <v>0.004678108729422092</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1123717948794365</v>
+        <v>0.005098272580653429</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.04814452677965164</v>
+        <v>0.005922359880059958</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0331510528922081</v>
+        <v>0.001308126840740442</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.05605814978480339</v>
+        <v>0.0006572920829057693</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.009341374039649963</v>
+        <v>0.000817798834759742</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.08455398678779602</v>
+        <v>2.463313285261393e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.002622076543048024</v>
+        <v>0.001088102231733501</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02467141672968864</v>
+        <v>8.333189180120826e-05</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.05697259306907654</v>
+        <v>0.006204712670296431</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.04632620140910149</v>
+        <v>0.0002618784783408046</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.005172389093786478</v>
+        <v>0.009673863649368286</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.008340185508131981</v>
+        <v>0.002709066728129983</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.08267977833747864</v>
+        <v>0.001737050013616681</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.1104578822851181</v>
+        <v>0.005268743727356195</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.03949115052819252</v>
+        <v>0.0001237266696989536</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.3023724257946014</v>
+        <v>0.01809284463524818</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.001669328659772873</v>
+        <v>0.007217438891530037</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.2573895454406738</v>
+        <v>0.005738151259720325</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.05169399455189705</v>
+        <v>0.001055446919053793</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.003538466291502118</v>
+        <v>0.001301060430705547</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.03352591022849083</v>
+        <v>0.002532575745135546</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.04463217034935951</v>
+        <v>0.0005202849861234426</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.03108872659504414</v>
+        <v>0.00684030819684267</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01070384867489338</v>
+        <v>0.004701237659901381</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.05940701439976692</v>
+        <v>0.002421608427539468</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.004630613140761852</v>
+        <v>0.0008257150184363127</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03717472776770592</v>
+        <v>0.007650945335626602</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.1005309671163559</v>
+        <v>0.01786171272397041</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.1136026382446289</v>
+        <v>0.009313403628766537</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03610234335064888</v>
+        <v>0.005942749790847301</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.006273758597671986</v>
+        <v>0.001344715477898717</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.003450025804340839</v>
+        <v>0.002696404000744224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001959387212991714</v>
+        <v>0.0006718981312587857</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006653659511357546</v>
+        <v>0.004422097001224756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06128892675042152</v>
+        <v>0.0003675504704006016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002797611989080906</v>
+        <v>0.002420727163553238</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02112625725567341</v>
+        <v>0.0007480846834369004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01016121357679367</v>
+        <v>0.003172011114656925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008305402006953955</v>
+        <v>0.0001572027977090329</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01371370442211628</v>
+        <v>0.001013776520267129</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02172638103365898</v>
+        <v>0.0002944905136246234</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002386674284934998</v>
+        <v>0.001480837119743228</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004184401128441095</v>
+        <v>0.003353816689923406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05941028147935867</v>
+        <v>0.0001347602810710669</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005450159311294556</v>
+        <v>0.002228487282991409</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007664465345442295</v>
+        <v>0.0007277789991348982</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008526140823960304</v>
+        <v>0.003499681828543544</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003136248327791691</v>
+        <v>5.865964340046048e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01440509501844645</v>
+        <v>2.85994028672576e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02309565059840679</v>
+        <v>0.000242151363636367</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004461932461708784</v>
+        <v>0.0003556511364877224</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01305553317070007</v>
+        <v>0.0006270744488574564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0006074174307286739</v>
+        <v>0.0003454932302702218</v>
       </c>
       <c r="V8" t="n">
-        <v>0.003737982828170061</v>
+        <v>0.0004032735887449235</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009974529966711998</v>
+        <v>0.0002480974071659148</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001413676189258695</v>
+        <v>0.0002865451097022742</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001950799603946507</v>
+        <v>0.0005781402578577399</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.007009703200310469</v>
+        <v>0.0003987872041761875</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0006950044189579785</v>
+        <v>0.0005214111297391355</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003310220781713724</v>
+        <v>1.928897108882666e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.004098245408385992</v>
+        <v>0.000472966959932819</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005913492757827044</v>
+        <v>0.0001255904935533181</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002461328636854887</v>
+        <v>1.960829104064032e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0001525843981653452</v>
+        <v>0.0002168655628338456</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002358633792027831</v>
+        <v>0.0001618768146727234</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.000172242391272448</v>
+        <v>0.0002374803298152983</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001319693285040557</v>
+        <v>0.0003531062684487551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.008165121078491211</v>
+        <v>0.0001517580240033567</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.005002961959689856</v>
+        <v>0.0003982065245509148</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004684204235672951</v>
+        <v>0.0007065099198371172</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.01140533201396465</v>
+        <v>0.0002812767634168267</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001290089101530612</v>
+        <v>9.148631943389773e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0001795435091480613</v>
+        <v>0.0003043464093934745</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001270085107535124</v>
+        <v>0.0005743216024711728</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0005432738689705729</v>
+        <v>3.349728649482131e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.00215991074219346</v>
+        <v>0.0002634511620271951</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001255539595149457</v>
+        <v>0.0006563109345734119</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.004970486275851727</v>
+        <v>0.0002782000810839236</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.006231991108506918</v>
+        <v>0.002693807706236839</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.026336919516325</v>
+        <v>0.0002622753381729126</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002351009054109454</v>
+        <v>0.0002156839182134718</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.002837516367435455</v>
+        <v>0.0002193036343669519</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.00699528818950057</v>
+        <v>0.001736431149765849</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.003687848802655935</v>
+        <v>4.269054625183344e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0009634917369112372</v>
+        <v>0.0006968305096961558</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001079035457223654</v>
+        <v>0.0009825588203966618</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0004973027389496565</v>
+        <v>0.00079653988359496</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.002177865244448185</v>
+        <v>0.0007992616738192737</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02081630378961563</v>
+        <v>0.001256183721125126</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.006014751270413399</v>
+        <v>0.0008294163853861392</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01031379215419292</v>
+        <v>0.001396937062963843</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.006205662153661251</v>
+        <v>0.0009484637994319201</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.00117960327770561</v>
+        <v>0.0001799573510652408</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.008813213557004929</v>
+        <v>0.000902047730050981</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.01193082425743341</v>
+        <v>0.0002000411768676713</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0001746368070598692</v>
+        <v>0.0001365068892482668</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0009158907923847437</v>
+        <v>0.0004806399228982627</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01245073042809963</v>
+        <v>0.0005719618056900799</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001879070186987519</v>
+        <v>0.0006321059190668166</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.007170038763433695</v>
+        <v>0.0003691210295073688</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.003499638987705112</v>
+        <v>4.654937220038846e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.002031914191320539</v>
+        <v>0.0003830374917015433</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.007393390871584415</v>
+        <v>0.0001569732266943902</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.003629155922681093</v>
+        <v>5.314248846843839e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.006872504018247128</v>
+        <v>0.0002236810105387121</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0005138346459716558</v>
+        <v>0.001326624304056168</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01857722736895084</v>
+        <v>0.0007024133810773492</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001052067847922444</v>
+        <v>0.0006337934755720198</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.007738309446722269</v>
+        <v>0.0005288782995194197</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.005687225144356489</v>
+        <v>0.0006119006429798901</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.002401114441454411</v>
+        <v>0.0003377164539415389</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0006530979881063104</v>
+        <v>0.0003968692326452583</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.006847555283457041</v>
+        <v>0.0007085870020091534</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001188353751786053</v>
+        <v>5.340677307685837e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.005460509099066257</v>
+        <v>0.0006983906496316195</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.01166587043553591</v>
+        <v>0.0006215999601408839</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00149748579133302</v>
+        <v>0.0003976959269493818</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.003450170159339905</v>
+        <v>0.0002679855388123542</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002593590645119548</v>
+        <v>0.0005853399052284658</v>
       </c>
       <c r="CJ8" t="n">
-        <v>7.419899338856339e-05</v>
+        <v>0.0002213565167039633</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.001490035909228027</v>
+        <v>0.0001866226812126115</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.00305981608107686</v>
+        <v>0.0003896079724654555</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.004026285838335752</v>
+        <v>0.0004583009867928922</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01080479100346565</v>
+        <v>0.0001593440101714805</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.005298624746501446</v>
+        <v>0.0002836801286321133</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0007425458170473576</v>
+        <v>0.0002842702378984541</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.003178325481712818</v>
+        <v>0.0001825760555220768</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.009357748553156853</v>
+        <v>0.0001422310306224972</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.002663886640220881</v>
+        <v>0.0006166109815239906</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.008594043552875519</v>
+        <v>0.0006542552728205919</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002539167180657387</v>
+        <v>0.0001878602197393775</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.001217216718941927</v>
+        <v>3.448427742114291e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.004433803260326385</v>
+        <v>0.0006378691759891808</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01210290193557739</v>
+        <v>0.0005703656934201717</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.002206290606409311</v>
+        <v>0.000608629547059536</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.006550042424350977</v>
+        <v>0.000248892669333145</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002053530653938651</v>
+        <v>0.0006693360046483576</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0006201149662956595</v>
+        <v>0.0001850796688813716</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.001814882270991802</v>
+        <v>0.0004243878356646746</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.002793209394440055</v>
+        <v>0.0002584281610324979</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0008784232195466757</v>
+        <v>0.0004314366378821433</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.008681750856339931</v>
+        <v>0.0005138700362294912</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.003864271799102426</v>
+        <v>0.0001832326815929264</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001638805959373713</v>
+        <v>0.001220656442455947</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.00051164161413908</v>
+        <v>0.0001508539135102183</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.003533198963850737</v>
+        <v>6.3459032389801e-05</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.001086110016331077</v>
+        <v>0.000460976327303797</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.00242865108884871</v>
+        <v>0.0006629655254073441</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0003119057510048151</v>
+        <v>0.0001674706727499142</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0007000769255682826</v>
+        <v>9.554217103868723e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.007784184068441391</v>
+        <v>4.112439637538046e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.000515098450705409</v>
+        <v>0.0003511031973175704</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.003756048856303096</v>
+        <v>0.0003642577794380486</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0004159638483542949</v>
+        <v>0.0001242790167452767</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00436586095020175</v>
+        <v>9.406395838595927e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.001742882886901498</v>
+        <v>0.0003794822259806097</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0003930231323465705</v>
+        <v>2.501398557797074e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.003207889385521412</v>
+        <v>0.0007118863286450505</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001274048816412687</v>
+        <v>0.0002005862916121259</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.004207288380712271</v>
+        <v>0.0004197345697320998</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.005736051592975855</v>
+        <v>0.0008431457099504769</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.004427342209964991</v>
+        <v>0.0001020823401631787</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004055939614772797</v>
+        <v>0.0001626282028155401</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.00327302748337388</v>
+        <v>0.0003860350989270955</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0008786552352830768</v>
+        <v>4.795296990778297e-05</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.00223439116962254</v>
+        <v>0.0003364286967553198</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.004314860794693232</v>
+        <v>0.0001154388737631962</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.001287892693653703</v>
+        <v>0.000301342224702239</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.002888311166316271</v>
+        <v>0.0005217015859670937</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.01249822974205017</v>
+        <v>0.0004243665316607803</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.000716968032065779</v>
+        <v>2.233416489616502e-05</v>
       </c>
       <c r="EJ8" t="n">
-        <v>2.255418803542852e-05</v>
+        <v>3.638601629063487e-05</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.007706314325332642</v>
+        <v>0.0005930393235757947</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0004880898632109165</v>
+        <v>0.0003361268900334835</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.006591658107936382</v>
+        <v>8.59647843753919e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.001757939346134663</v>
+        <v>8.71296288096346e-05</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0003545755753293633</v>
+        <v>3.49550973623991e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003013062058016658</v>
+        <v>0.0002799822541419417</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.003792935749515891</v>
+        <v>0.0005772802978754044</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.001517977798357606</v>
+        <v>0.0003355908556841314</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.003672807011753321</v>
+        <v>0.0004308813659008592</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.004129841458052397</v>
+        <v>0.0004988180589862168</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.003564625512808561</v>
+        <v>0.000453597487648949</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0002664680941961706</v>
+        <v>0.0007593510672450066</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.007822860963642597</v>
+        <v>5.733109719585627e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0003360442060511559</v>
+        <v>8.252181578427553e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003172643948346376</v>
+        <v>0.000615455734077841</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01229448337107897</v>
+        <v>0.0004466557875275612</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001477157115004957</v>
+        <v>0.0004964710678905249</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.00516187772154808</v>
+        <v>0.0003286672581452876</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0001199264952447265</v>
+        <v>0.0005265045911073685</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.000444243079982698</v>
+        <v>0.0003647086850833148</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.003969134297221899</v>
+        <v>0.0002480171388015151</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.004117310978472233</v>
+        <v>0.0004365927306935191</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0004113944014534354</v>
+        <v>0.0001193521602544934</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.008371456526219845</v>
+        <v>0.0003136432496830821</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.009431085549294949</v>
+        <v>0.0006037569837644696</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01147950254380703</v>
+        <v>0.000709940679371357</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0071251573972404</v>
+        <v>0.0001649264595471323</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.003502733539789915</v>
+        <v>0.0004662069259211421</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0006206989637576044</v>
+        <v>0.000314451550366357</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.002347401808947325</v>
+        <v>0.0002856584906112403</v>
       </c>
       <c r="FO8" t="n">
-        <v>2.49106960836798e-06</v>
+        <v>0.0004328527138568461</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0001343716867268085</v>
+        <v>9.881414007395506e-05</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0179634690284729</v>
+        <v>0.0009436405962333083</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.009157372638583183</v>
+        <v>0.0002169909421354532</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.001348538906313479</v>
+        <v>0.001019480754621327</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.006713838316500187</v>
+        <v>0.0007514557801187038</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.001489067217335105</v>
+        <v>0.0002724934020079672</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00142321118619293</v>
+        <v>0.0003075335407629609</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.004844221286475658</v>
+        <v>0.0003089414094574749</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.003809546586126089</v>
+        <v>5.120893911225721e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.002262524329125881</v>
+        <v>0.0009216847829520702</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.001791589194908738</v>
+        <v>0.0001700313296169043</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.005777191370725632</v>
+        <v>0.0001534700422780588</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.002134860958904028</v>
+        <v>5.33625679963734e-05</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.006681591272354126</v>
+        <v>0.0003001303994096816</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.009479470551013947</v>
+        <v>0.0003577266179490834</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0001889698905870318</v>
+        <v>0.002076083794236183</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.002897451398894191</v>
+        <v>8.276202424895018e-05</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.001524153281934559</v>
+        <v>0.0003869059728458524</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001126566639868543</v>
+        <v>0.04628117382526398</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0002128350606653839</v>
+        <v>0.2185528725385666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003765413537621498</v>
+        <v>0.01737931184470654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003683690738398582</v>
+        <v>0.0763181671500206</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001987787894904613</v>
+        <v>0.1074501797556877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009739117813296616</v>
+        <v>0.00193905271589756</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000725212215911597</v>
+        <v>0.02031820826232433</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001877843023976311</v>
+        <v>0.02894157543778419</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002292837016284466</v>
+        <v>0.008238951675593853</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002404538972768933</v>
+        <v>0.0405396930873394</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001804032799554989</v>
+        <v>0.1619797796010971</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004060075618326664</v>
+        <v>0.01472830772399902</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0004534009785857052</v>
+        <v>0.09728193283081055</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000837586005218327</v>
+        <v>0.1137116700410843</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0003075392160099</v>
+        <v>0.02993317320942879</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0007556267082691193</v>
+        <v>0.01068350486457348</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001011349668260664</v>
+        <v>0.1118756681680679</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0006920142914168537</v>
+        <v>0.01518923230469227</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0002732212597038597</v>
+        <v>0.003473075572401285</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0005271825357340276</v>
+        <v>0.07189731299877167</v>
       </c>
       <c r="U10" t="n">
-        <v>5.177477578399703e-05</v>
+        <v>0.005563874263316393</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001765930646797642</v>
+        <v>0.01093904860317707</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0003620451898314059</v>
+        <v>0.02719856612384319</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0001117025676649064</v>
+        <v>0.0226349588483572</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0001130815362557769</v>
+        <v>0.03566631674766541</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.000397000927478075</v>
+        <v>0.0009367037564516068</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0002751651336438954</v>
+        <v>0.01508111786097288</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0003223487874493003</v>
+        <v>0.02673620730638504</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0005468112649396062</v>
+        <v>0.053232342004776</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0004776099813170731</v>
+        <v>0.02745743282139301</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.241700222948566e-05</v>
+        <v>0.03758683055639267</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0002142964658560231</v>
+        <v>0.03593746200203896</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0002287841925863177</v>
+        <v>0.008699956350028515</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.127791519043967e-05</v>
+        <v>0.04895360767841339</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0006483992910943925</v>
+        <v>0.01858333498239517</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0004524656978901476</v>
+        <v>0.01330682635307312</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0001005692320177332</v>
+        <v>0.03658690676093102</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.000336242577759549</v>
+        <v>0.04507096856832504</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0007219339022412896</v>
+        <v>0.0003548730164766312</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001462962827645242</v>
+        <v>0.004801653791218996</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0003293602494522929</v>
+        <v>0.02285493351519108</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0003036213747691363</v>
+        <v>0.01067063864320517</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001493848394602537</v>
+        <v>0.01296741422265768</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0001080550646292977</v>
+        <v>0.003369247075170279</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0002554174570832402</v>
+        <v>0.01424833387136459</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.454161924310029e-05</v>
+        <v>0.06348598748445511</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0005103708244860172</v>
+        <v>0.2057624310255051</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001486333319917321</v>
+        <v>0.02076514810323715</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0002449314051773399</v>
+        <v>0.002704799175262451</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.000191170271136798</v>
+        <v>0.004208200611174107</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0005505326553247869</v>
+        <v>0.006189410574734211</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0001613620552234352</v>
+        <v>0.009086544625461102</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0008123709703795612</v>
+        <v>0.04113975912332535</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0007557430071756244</v>
+        <v>0.008731871843338013</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0002253421116620302</v>
+        <v>0.03368451818823814</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.457737279357389e-05</v>
+        <v>0.03340050205588341</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0008820047951303422</v>
+        <v>0.04861626774072647</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.753401531663258e-06</v>
+        <v>0.02210799232125282</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.001529052620753646</v>
+        <v>0.06244330108165741</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0006579436594620347</v>
+        <v>0.02273620292544365</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0002341534855077043</v>
+        <v>0.005773835349828005</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0004753126704599708</v>
+        <v>0.06980571150779724</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0004232731589581817</v>
+        <v>0.01068164128810167</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0002549024065956473</v>
+        <v>0.002003493485972285</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.000199762755073607</v>
+        <v>0.07583297044038773</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0008402438252232969</v>
+        <v>0.005376845132559538</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0001069724166882224</v>
+        <v>0.08337651193141937</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0005735214217565954</v>
+        <v>0.08480727672576904</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.319224247708917e-05</v>
+        <v>0.02997677400708199</v>
       </c>
       <c r="BR10" t="n">
-        <v>8.330101263709366e-05</v>
+        <v>0.009481950663030148</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0001935625623445958</v>
+        <v>0.04111015051603317</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0001263176382053643</v>
+        <v>0.0008143825689330697</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.042223397642374e-05</v>
+        <v>0.02690517716109753</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0002307691174792126</v>
+        <v>0.1201792657375336</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.001280240481719375</v>
+        <v>0.03442852571606636</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.354178311885335e-05</v>
+        <v>0.01820023730397224</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0002992736117448658</v>
+        <v>0.008517161011695862</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0006380504928529263</v>
+        <v>0.01477793790400028</v>
       </c>
       <c r="CA10" t="n">
-        <v>5.69387266295962e-05</v>
+        <v>0.06127692013978958</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0002523891453165561</v>
+        <v>0.02649201080203056</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0001957599597517401</v>
+        <v>0.01301530189812183</v>
       </c>
       <c r="CD10" t="n">
-        <v>9.481972665525973e-05</v>
+        <v>0.00338249932974577</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0003838383709080517</v>
+        <v>0.04338572546839714</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0006467206403613091</v>
+        <v>0.01031235139816999</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0001615252404008061</v>
+        <v>0.03039451688528061</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0003379277186468244</v>
+        <v>0.006077778991311789</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0002595227560959756</v>
+        <v>0.01533273793756962</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.000101009602076374</v>
+        <v>0.00365657452493906</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0001221724378410727</v>
+        <v>0.005694622173905373</v>
       </c>
       <c r="CL10" t="n">
-        <v>4.933499440085143e-05</v>
+        <v>0.01954203844070435</v>
       </c>
       <c r="CM10" t="n">
-        <v>7.923852535896003e-06</v>
+        <v>0.08753897994756699</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0001998665393330157</v>
+        <v>0.08241253346204758</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0002953036455437541</v>
+        <v>0.007178700529038906</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.074680560326669e-05</v>
+        <v>0.03111780621111393</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0002377858472755179</v>
+        <v>0.1016966477036476</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.728045026538894e-05</v>
+        <v>0.004699568264186382</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002624909102451056</v>
+        <v>0.02040353789925575</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0002617711143102497</v>
+        <v>0.002151478081941605</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0004684747837018222</v>
+        <v>0.004277163185179234</v>
       </c>
       <c r="CV10" t="n">
-        <v>6.898324500070885e-05</v>
+        <v>0.005529125221073627</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0003492259129416198</v>
+        <v>0.03490717336535454</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0007022998761385679</v>
+        <v>0.0162227600812912</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.000111518740595784</v>
+        <v>0.04575489088892937</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0005153444362804294</v>
+        <v>0.0007011388661339879</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0002916153753176332</v>
+        <v>0.01672201603651047</v>
       </c>
       <c r="DB10" t="n">
-        <v>7.10260501364246e-05</v>
+        <v>0.005328604485839605</v>
       </c>
       <c r="DC10" t="n">
-        <v>8.120639540720731e-05</v>
+        <v>0.007203264161944389</v>
       </c>
       <c r="DD10" t="n">
-        <v>6.331694021355361e-05</v>
+        <v>0.01374348532408476</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0001735073892632499</v>
+        <v>0.07145756483078003</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0006672402378171682</v>
+        <v>0.133560985326767</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0001069013960659504</v>
+        <v>0.0128092784434557</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0001550788729218766</v>
+        <v>0.1014334708452225</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0005307069513946772</v>
+        <v>0.05176009610295296</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0005831830785609782</v>
+        <v>0.01861606165766716</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0002316390891792253</v>
+        <v>0.101417638361454</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0001394780847476795</v>
+        <v>0.02761193178594112</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0001106828276533633</v>
+        <v>0.01664618216454983</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.567086837894749e-05</v>
+        <v>0.03645668923854828</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0001850459957495332</v>
+        <v>0.04481464996933937</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0001235050149261951</v>
+        <v>0.009931276552379131</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0001219775294885039</v>
+        <v>0.004545066505670547</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0001979708322323859</v>
+        <v>0.04897624626755714</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0001351163955405354</v>
+        <v>0.001173430471681058</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.395816383999772e-05</v>
+        <v>0.02600969187915325</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0004485178797040135</v>
+        <v>0.02460051327943802</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0001023198055918328</v>
+        <v>0.01701196096837521</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001676289248280227</v>
+        <v>0.01338613033294678</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0002543165464885533</v>
+        <v>0.01347362343221903</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0002873802441172302</v>
+        <v>0.01414648722857237</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0005092630162835121</v>
+        <v>0.05256993323564529</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0001108344295062125</v>
+        <v>0.02857338078320026</v>
       </c>
       <c r="EB10" t="n">
-        <v>6.800050323363394e-05</v>
+        <v>0.01140087191015482</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0001305743644479662</v>
+        <v>0.03124927543103695</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0002890391042456031</v>
+        <v>0.01257406920194626</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.245924719725735e-05</v>
+        <v>0.01162736117839813</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003844588063657284</v>
+        <v>0.02560309320688248</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0003301880788058043</v>
+        <v>0.0007781597669236362</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0009208063129335642</v>
+        <v>0.003857630072161555</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0002096414100378752</v>
+        <v>0.06855486333370209</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.000546719878911972</v>
+        <v>0.02289576269686222</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0008452457841485739</v>
+        <v>0.01890003308653831</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.000110792214400135</v>
+        <v>0.01688153855502605</v>
       </c>
       <c r="EM10" t="n">
-        <v>4.951531809638254e-05</v>
+        <v>0.01185865420848131</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004647853493224829</v>
+        <v>0.006468367762863636</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.338336824119324e-05</v>
+        <v>0.03793904930353165</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0004095768963452429</v>
+        <v>0.01144996099174023</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0003459349391050637</v>
+        <v>0.03970495611429214</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0001600586256245151</v>
+        <v>0.03006858378648758</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0002666866639629006</v>
+        <v>0.004170283209532499</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0003134651633445174</v>
+        <v>0.03649134933948517</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0002846308052539825</v>
+        <v>0.01556682679802179</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0003932766849175096</v>
+        <v>0.02158186957240105</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0002337075275136158</v>
+        <v>0.01229071896523237</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0001972641766769812</v>
+        <v>0.00375857762992382</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.000250314682489261</v>
+        <v>0.03118126653134823</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0006867616320960224</v>
+        <v>0.009189816191792488</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0001644833100726828</v>
+        <v>0.0344826728105545</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0004283914458937943</v>
+        <v>0.0003795376978814602</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0002009877498494461</v>
+        <v>0.01624134182929993</v>
       </c>
       <c r="FD10" t="n">
-        <v>8.003095717867836e-05</v>
+        <v>0.008871715515851974</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.199555744184181e-05</v>
+        <v>0.008033097721636295</v>
       </c>
       <c r="FF10" t="n">
-        <v>4.353107215138152e-05</v>
+        <v>0.01743160933256149</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0001661999267525971</v>
+        <v>0.02718186937272549</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0002230037935078144</v>
+        <v>0.03809515386819839</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0004403522470965981</v>
+        <v>0.02770721539855003</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0004678513505496085</v>
+        <v>0.01535483542829752</v>
       </c>
       <c r="FK10" t="n">
-        <v>5.010891254642047e-05</v>
+        <v>0.000884148757904768</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0003610676503740251</v>
+        <v>0.009796134196221828</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.069878973998129e-05</v>
+        <v>0.009105653502047062</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0001230428897542879</v>
+        <v>0.009984896518290043</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0001989394950214773</v>
+        <v>0.003778975922614336</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.000474024040158838</v>
+        <v>0.006880262866616249</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.001346834469586611</v>
+        <v>0.006040327250957489</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0003090904210694134</v>
+        <v>0.04043694213032722</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0004124516563024372</v>
+        <v>0.06209131330251694</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.000319633778417483</v>
+        <v>0.06754597276449203</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0002194010594394058</v>
+        <v>0.01636102981865406</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0001213475916301832</v>
+        <v>0.01468458585441113</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0002696314768400043</v>
+        <v>0.05505209416151047</v>
       </c>
       <c r="FX10" t="n">
-        <v>3.766289864870487e-06</v>
+        <v>0.003878105897456408</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.635557575558778e-05</v>
+        <v>0.02851093746721745</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0001263867452507839</v>
+        <v>0.06269833445549011</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0003049012739211321</v>
+        <v>0.01900376006960869</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.000275834056083113</v>
+        <v>0.04002806171774864</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0003791460185311735</v>
+        <v>0.01160092186182737</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0001994519698200747</v>
+        <v>0.02670126967132092</v>
       </c>
       <c r="GE10" t="n">
-        <v>7.320026634261012e-05</v>
+        <v>0.06597878783941269</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0001181313200504519</v>
+        <v>0.05632986128330231</v>
       </c>
       <c r="GG10" t="n">
-        <v>8.718647586647421e-05</v>
+        <v>0.006385993212461472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03281085193157196</v>
+        <v>0.08506237715482712</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1089262664318085</v>
+        <v>0.2788068652153015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1560550183057785</v>
+        <v>0.0003999681212007999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05102487280964851</v>
+        <v>0.02118871361017227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01186574995517731</v>
+        <v>0.141328752040863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01541979052126408</v>
+        <v>0.0574692003428936</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003745309077203274</v>
+        <v>0.01489623822271824</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0139827448874712</v>
+        <v>0.01433665677905083</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0410335548222065</v>
+        <v>0.04185043275356293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03955675289034843</v>
+        <v>0.06744799017906189</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1037874221801758</v>
+        <v>0.2173706889152527</v>
       </c>
       <c r="L11" t="n">
-        <v>0.177206426858902</v>
+        <v>0.01442959904670715</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04368560016155243</v>
+        <v>0.08937110006809235</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01406442746520042</v>
+        <v>0.2295583039522171</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007083083037286997</v>
+        <v>0.09533977508544922</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02304303273558617</v>
+        <v>0.0510902926325798</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0108379703015089</v>
+        <v>0.1293697208166122</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03958308324217796</v>
+        <v>0.08354569971561432</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02168340981006622</v>
+        <v>0.0131248002871871</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04965998232364655</v>
+        <v>0.1184171512722969</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03047504276037216</v>
+        <v>0.0266905277967453</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01722250133752823</v>
+        <v>0.008321585133671761</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05362198501825333</v>
+        <v>0.06158129498362541</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02568298950791359</v>
+        <v>0.06081823632121086</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03693319112062454</v>
+        <v>0.04302923381328583</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01311895530670881</v>
+        <v>0.005670459475368261</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01268955692648888</v>
+        <v>0.02643659338355064</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01672555319964886</v>
+        <v>0.01833861880004406</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05072009190917015</v>
+        <v>0.05955542251467705</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02062840014696121</v>
+        <v>0.02998072095215321</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.04005511850118637</v>
+        <v>0.0711812749505043</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03978707268834114</v>
+        <v>0.02717329189181328</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01485796272754669</v>
+        <v>0.07966840267181396</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.03961624205112457</v>
+        <v>0.07894147932529449</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.04486954212188721</v>
+        <v>0.01583311334252357</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.05554189532995224</v>
+        <v>0.005389829631894827</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01506947912275791</v>
+        <v>0.04906302690505981</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.02385755255818367</v>
+        <v>0.07321862876415253</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03501448407769203</v>
+        <v>0.01071078050881624</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01617318764328957</v>
+        <v>0.01424527727067471</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.002421526703983545</v>
+        <v>0.008277026936411858</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.007611535489559174</v>
+        <v>0.05912512540817261</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.009598271921277046</v>
+        <v>0.03342018276453018</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.024805698543787</v>
+        <v>0.02109255641698837</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.009506156668066978</v>
+        <v>0.01474021468311548</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.03199464455246925</v>
+        <v>0.09716188162565231</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.05681044235825539</v>
+        <v>0.238751158118248</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.03556304425001144</v>
+        <v>0.009115812368690968</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.06370207667350769</v>
+        <v>0.03405208885669708</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.05569492653012276</v>
+        <v>0.07626973837614059</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.01540032122284174</v>
+        <v>0.03166001662611961</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01282735913991928</v>
+        <v>0.002313812728971243</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0003223400563001633</v>
+        <v>0.04502216354012489</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01556428335607052</v>
+        <v>0.03362705186009407</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.008287420496344566</v>
+        <v>0.0459941104054451</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.04927575588226318</v>
+        <v>0.0007700370624661446</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.05327486619353294</v>
+        <v>0.02362700924277306</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.007762988097965717</v>
+        <v>0.02234708704054356</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.09929650276899338</v>
+        <v>0.1694160997867584</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.02222703397274017</v>
+        <v>0.01528600696474314</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.002272220328450203</v>
+        <v>0.01787713728845119</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.04455900192260742</v>
+        <v>0.08026514202356339</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.009549812413752079</v>
+        <v>0.07999113947153091</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0100531755015254</v>
+        <v>0.009084186516702175</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0008805273100733757</v>
+        <v>0.05146852135658264</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.03682364895939827</v>
+        <v>0.01206152513623238</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.001094353501684964</v>
+        <v>0.1155291125178337</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01855631172657013</v>
+        <v>0.1449514776468277</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.03014814667403698</v>
+        <v>0.03887277096509933</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.006331443786621094</v>
+        <v>0.007505254354327917</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.02042657136917114</v>
+        <v>0.05927648395299911</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.00433009397238493</v>
+        <v>0.04614327102899551</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.02411900088191032</v>
+        <v>0.04509801417589188</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.05389206856489182</v>
+        <v>0.143721267580986</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.06075241416692734</v>
+        <v>0.02252429351210594</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.007916376926004887</v>
+        <v>0.02376314252614975</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.006600352004170418</v>
+        <v>0.009575606323778629</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0309392511844635</v>
+        <v>0.01614979468286037</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.00189551617950201</v>
+        <v>0.05079926550388336</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.02760839462280273</v>
+        <v>0.02539068274199963</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01682013086974621</v>
+        <v>0.02160735800862312</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003148164600133896</v>
+        <v>0.005258594639599323</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0181447546929121</v>
+        <v>0.05178347229957581</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.02398365549743176</v>
+        <v>0.01229823473840952</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.01263120118528605</v>
+        <v>0.04391699284315109</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.001183735672384501</v>
+        <v>0.006251523271203041</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.008135073818266392</v>
+        <v>0.004375619813799858</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01184411533176899</v>
+        <v>0.004945486783981323</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.006154885981231928</v>
+        <v>0.001633840380236506</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.007219670806080103</v>
+        <v>0.0005095308879390359</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.007098727859556675</v>
+        <v>0.115619383752346</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01106440555304289</v>
+        <v>0.05692331865429878</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.02135781571269035</v>
+        <v>0.007359130308032036</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.02010089717805386</v>
+        <v>0.01673015579581261</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.04435273259878159</v>
+        <v>0.1155999824404716</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.008314978331327438</v>
+        <v>0.009946292266249657</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.03304519131779671</v>
+        <v>0.03149040043354034</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02543696947395802</v>
+        <v>0.01827809400856495</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.02934212237596512</v>
+        <v>0.02223391644656658</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.006656918674707413</v>
+        <v>0.0006520426832139492</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.01629346609115601</v>
+        <v>0.05462896451354027</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02863390371203423</v>
+        <v>0.01199101470410824</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.001255046227015555</v>
+        <v>0.05240657180547714</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.007077742833644152</v>
+        <v>0.01310743298381567</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01042479183524847</v>
+        <v>0.01620187051594257</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.01637627184391022</v>
+        <v>0.01746787875890732</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0132905375212431</v>
+        <v>0.009660975076258183</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.004320678766816854</v>
+        <v>0.004258428234606981</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01146864984184504</v>
+        <v>0.1104670017957687</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.02724687941372395</v>
+        <v>0.2301334738731384</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.003463447093963623</v>
+        <v>0.02296676300466061</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.05983700975775719</v>
+        <v>0.03285281360149384</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0318610705435276</v>
+        <v>0.01870989426970482</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.02206883579492569</v>
+        <v>0.08538346737623215</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.01684081926941872</v>
+        <v>0.06370014697313309</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.007204718422144651</v>
+        <v>0.05261318758130074</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01692774519324303</v>
+        <v>0.04805903509259224</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.02902120538055897</v>
+        <v>0.04993688687682152</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.02204658836126328</v>
+        <v>0.08566196262836456</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01389408297836781</v>
+        <v>0.01398214790970087</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.003162321168929338</v>
+        <v>0.04327793419361115</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.001058470457792282</v>
+        <v>0.05042344704270363</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0142107717692852</v>
+        <v>0.001658761873841286</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.02728750184178352</v>
+        <v>0.01683354005217552</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.01120830327272415</v>
+        <v>0.001252594869583845</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.03474171459674835</v>
+        <v>0.03450635820627213</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.02269525453448296</v>
+        <v>0.01865248382091522</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.006485401652753353</v>
+        <v>0.04218669608235359</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01378368400037289</v>
+        <v>0.05023962631821632</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.01040085218846798</v>
+        <v>0.0675930380821228</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01823006197810173</v>
+        <v>0.05105780065059662</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.009274504147469997</v>
+        <v>0.00881048571318388</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.002142683602869511</v>
+        <v>0.04150090739130974</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.005742689594626427</v>
+        <v>0.01567673124372959</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.03356665745377541</v>
+        <v>0.03091116063296795</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.00283036520704627</v>
+        <v>0.03025669045746326</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.006728654727339745</v>
+        <v>0.05613048002123833</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.03046814911067486</v>
+        <v>0.01141259726136923</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.01769100874662399</v>
+        <v>0.07022891938686371</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.009932964108884335</v>
+        <v>0.02504252828657627</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01301281992346048</v>
+        <v>0.0375843308866024</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.006183810997754335</v>
+        <v>0.01978687755763531</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.009572516195476055</v>
+        <v>0.01750272512435913</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.006665400695055723</v>
+        <v>0.01501315273344517</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.01691139675676823</v>
+        <v>0.02335390262305737</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.03453364595770836</v>
+        <v>0.01285847462713718</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.005785260815173388</v>
+        <v>0.01921033300459385</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.03140154853463173</v>
+        <v>0.01946999877691269</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.05128051713109016</v>
+        <v>0.00533123966306448</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01706747710704803</v>
+        <v>0.01273093372583389</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01363208144903183</v>
+        <v>0.01233520824462175</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.01554514653980732</v>
+        <v>0.02323878929018974</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.02214056998491287</v>
+        <v>0.01046169549226761</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.006963869091123343</v>
+        <v>0.008360456675291061</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.007983256131410599</v>
+        <v>0.04505056142807007</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.02791815996170044</v>
+        <v>0.00783046055585146</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.004125915002077818</v>
+        <v>0.04735565558075905</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.004786673467606306</v>
+        <v>0.003509512636810541</v>
       </c>
       <c r="FC11" t="n">
-        <v>9.828945621848106e-07</v>
+        <v>0.009359585121273994</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01617341302335262</v>
+        <v>0.01207984704524279</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.006312716752290726</v>
+        <v>0.01141123101115227</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.008636169135570526</v>
+        <v>0.004160020966082811</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.03514344617724419</v>
+        <v>0.0633050873875618</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01994216069579124</v>
+        <v>0.0431085042655468</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.04632765054702759</v>
+        <v>0.03443057835102081</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.04247500747442245</v>
+        <v>0.03331043571233749</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.002571771154180169</v>
+        <v>0.02085584402084351</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.04142044857144356</v>
+        <v>0.007712480612099171</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.03327641636133194</v>
+        <v>0.03311508893966675</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03258295729756355</v>
+        <v>0.001299686264246702</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001855929847806692</v>
+        <v>0.003377060405910015</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.05915087461471558</v>
+        <v>0.04821013659238815</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01676233671605587</v>
+        <v>0.05353661626577377</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02688056044280529</v>
+        <v>0.03413455933332443</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.02038327790796757</v>
+        <v>0.1323608458042145</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.03338863700628281</v>
+        <v>0.07059346139431</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.02347250282764435</v>
+        <v>0.04249294474720955</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.02106847986578941</v>
+        <v>0.0008980371057987213</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.008837692439556122</v>
+        <v>0.03325396031141281</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.08379202336072922</v>
+        <v>0.01786896213889122</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.005943362601101398</v>
+        <v>0.03180381655693054</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.007765893824398518</v>
+        <v>0.06660138070583344</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.02854928746819496</v>
+        <v>0.02160818874835968</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.02833688631653786</v>
+        <v>0.1009142026305199</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.03591544553637505</v>
+        <v>0.1396520733833313</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.002956753829494119</v>
+        <v>0.03781072422862053</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01650519110262394</v>
+        <v>0.1005512699484825</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.007543319836258888</v>
+        <v>0.1064713671803474</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0166198443621397</v>
+        <v>0.02106037735939026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0179341733455658</v>
+        <v>0.02088192477822304</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03684212639927864</v>
+        <v>0.09047577530145645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004232769832015038</v>
+        <v>0.01341110095381737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1211109906435013</v>
+        <v>0.01862579956650734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0154730286449194</v>
+        <v>0.05748897418379784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009703236864879727</v>
+        <v>0.01469107624143362</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00258141104131937</v>
+        <v>0.069874607026577</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03765381500124931</v>
+        <v>0.008804119192063808</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0145039651542902</v>
+        <v>0.004536574706435204</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03495542332530022</v>
+        <v>0.02710543572902679</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06549246609210968</v>
+        <v>0.06303507089614868</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02027937397360802</v>
+        <v>0.003777291625738144</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0761139988899231</v>
+        <v>0.03530294820666313</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05195899680256844</v>
+        <v>0.05832254514098167</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05286878347396851</v>
+        <v>0.02151091024279594</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01144520286470652</v>
+        <v>0.05256634950637817</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05399411916732788</v>
+        <v>0.008642380125820637</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02018198370933533</v>
+        <v>0.01022624038159847</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01170680671930313</v>
+        <v>0.009954757988452911</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01644957065582275</v>
+        <v>0.03816474229097366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01382224634289742</v>
+        <v>0.008320792578160763</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03839263319969177</v>
+        <v>0.02603249065577984</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05173996463418007</v>
+        <v>0.04577572643756866</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01368984114378691</v>
+        <v>0.02220502123236656</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.002808349207043648</v>
+        <v>0.005492898635566235</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.009723021648824215</v>
+        <v>0.01159390341490507</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007495105266571045</v>
+        <v>0.001068546785973012</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03633973374962807</v>
+        <v>0.01761072874069214</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02463185042142868</v>
+        <v>0.03154692798852921</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01449382863938808</v>
+        <v>0.01862885616719723</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0459526851773262</v>
+        <v>0.008272770792245865</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00912975799292326</v>
+        <v>0.00476563349366188</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.001480345497839153</v>
+        <v>0.01062980480492115</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.002533340128138661</v>
+        <v>0.001832899637520313</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002085189567878842</v>
+        <v>0.006326935719698668</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.002374702133238316</v>
+        <v>0.002504585543647408</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.03268821537494659</v>
+        <v>0.02383662760257721</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0139930360019207</v>
+        <v>0.005678827408701181</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.006044494919478893</v>
+        <v>8.781343785813078e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00663618603721261</v>
+        <v>0.01653530076146126</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.01456583291292191</v>
+        <v>0.005626085679978132</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.003850228153169155</v>
+        <v>0.001464389264583588</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.004739225842058659</v>
+        <v>0.01106325723230839</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.004365968517959118</v>
+        <v>0.01440446265041828</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.005964342970401049</v>
+        <v>0.00128441583365202</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.03067405708134174</v>
+        <v>0.01911867782473564</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.05661671236157417</v>
+        <v>0.08161481469869614</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01649395376443863</v>
+        <v>0.003900028299540281</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.02782603912055492</v>
+        <v>0.03286490589380264</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.06142016500234604</v>
+        <v>0.00142214703373611</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.01688805036246777</v>
+        <v>0.02620528824627399</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.008324762806296349</v>
+        <v>0.02647934481501579</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.03633240237832069</v>
+        <v>0.005942433141171932</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.005122777540236712</v>
+        <v>0.0008389679715037346</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.008572167716920376</v>
+        <v>0.006752664688974619</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.01497857738286257</v>
+        <v>0.02410233207046986</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.01665551215410233</v>
+        <v>0.0262303464114666</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.05288462340831757</v>
+        <v>0.008033008314669132</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.03307416662573814</v>
+        <v>0.03062531538307667</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04721167683601379</v>
+        <v>0.01008007768541574</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0007437351159751415</v>
+        <v>0.02883892878890038</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01876574009656906</v>
+        <v>0.002461113734170794</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.002840674482285976</v>
+        <v>0.01063383277505636</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.02435006387531757</v>
+        <v>0.004556963220238686</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02428334020078182</v>
+        <v>0.02266959473490715</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.01212611421942711</v>
+        <v>0.01558845769613981</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.02408289164304733</v>
+        <v>0.02762085385620594</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02049256861209869</v>
+        <v>0.05253835767507553</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.006670368369668722</v>
+        <v>0.002753861714154482</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.001526545267552137</v>
+        <v>0.004809393547475338</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.006923338863998652</v>
+        <v>0.02264304645359516</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.003745804307982326</v>
+        <v>0.002764417557045817</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.03542636707425117</v>
+        <v>0.0006171143613755703</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.006060882471501827</v>
+        <v>0.02791095152497292</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.00230761244893074</v>
+        <v>0.02242160774767399</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.02251335605978966</v>
+        <v>0.02882947772741318</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.008368801325559616</v>
+        <v>0.002796436659991741</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.02409257553517818</v>
+        <v>0.006431860383599997</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.006188252940773964</v>
+        <v>0.008230037987232208</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01755318976938725</v>
+        <v>0.02227120660245419</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.00418983306735754</v>
+        <v>0.006405491847544909</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.04686286300420761</v>
+        <v>0.005219951272010803</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.007351584732532501</v>
+        <v>0.02162534929811954</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.494795575737953e-05</v>
+        <v>0.005334081593900919</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02200779505074024</v>
+        <v>0.002088358858600259</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01468957960605621</v>
+        <v>0.007256480399519205</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.005087331403046846</v>
+        <v>0.0008392580784857273</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.008973007090389729</v>
+        <v>0.009096377529203892</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01328880432993174</v>
+        <v>0.004454659298062325</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.005272864829748869</v>
+        <v>0.0005639874725602567</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.03322486579418182</v>
+        <v>0.03735030069947243</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.04675241932272911</v>
+        <v>0.03425700962543488</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0237664207816124</v>
+        <v>0.002637375146150589</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.00719918217509985</v>
+        <v>0.008780425414443016</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.02855836600065231</v>
+        <v>0.04007092118263245</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.07545064389705658</v>
+        <v>0.003210503375157714</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.01252734940499067</v>
+        <v>0.01668582111597061</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.03485081344842911</v>
+        <v>0.01244898699223995</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.007234901655465364</v>
+        <v>0.01844639703631401</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.04532847553491592</v>
+        <v>0.008238024078309536</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0103436540812254</v>
+        <v>0.0159981045871973</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0005832039751112461</v>
+        <v>0.008547006174921989</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.02034957520663738</v>
+        <v>0.008412135764956474</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01481275074183941</v>
+        <v>0.002931049559265375</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.008346626535058022</v>
+        <v>0.0004826211370527744</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.004718721844255924</v>
+        <v>0.01025489438325167</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.01001221407204866</v>
+        <v>0.005837067030370235</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.008452189154922962</v>
+        <v>0.001053965534083545</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.04837870970368385</v>
+        <v>0.0007825698703527451</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0002746917307376862</v>
+        <v>0.04245304688811302</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.00992881041020155</v>
+        <v>0.01175149530172348</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.008659238927066326</v>
+        <v>0.0173015333712101</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.04057886451482773</v>
+        <v>0.01202128827571869</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.007216850761324167</v>
+        <v>0.02673391252756119</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0005392427556216717</v>
+        <v>0.001900935079902411</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.02133641950786114</v>
+        <v>0.009623272344470024</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.008729239925742149</v>
+        <v>0.02442997321486473</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.04114852473139763</v>
+        <v>0.003574877046048641</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.00153214787133038</v>
+        <v>0.01183512527495623</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.02426406368613243</v>
+        <v>0.01897091418504715</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01107285264879465</v>
+        <v>0.01380022615194321</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.04528084024786949</v>
+        <v>0.0145316943526268</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.003705424722284079</v>
+        <v>0.01265798322856426</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01783731579780579</v>
+        <v>0.004022690933197737</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.004670234862715006</v>
+        <v>0.01361858658492565</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.009602171368896961</v>
+        <v>0.0001515727490186691</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.008840598165988922</v>
+        <v>0.0001738346181809902</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.004348176065832376</v>
+        <v>0.02251410111784935</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.02191152982413769</v>
+        <v>0.01001035422086716</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01962207816541195</v>
+        <v>0.004725150763988495</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.001533439033664763</v>
+        <v>0.01233054231852293</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.04415897279977798</v>
+        <v>0.01263777446001768</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0002602720633149147</v>
+        <v>0.006669607944786549</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01615966111421585</v>
+        <v>0.009288463741540909</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.00923465471714735</v>
+        <v>0.01307373773306608</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.04453516006469727</v>
+        <v>0.01249849610030651</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.01544217392802238</v>
+        <v>0.001412560231983662</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.003310130909085274</v>
+        <v>0.001635901746340096</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.03675645589828491</v>
+        <v>0.02667517587542534</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.03822199627757072</v>
+        <v>0.003653372870758176</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.01695717684924603</v>
+        <v>0.001739165280014277</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.006960694678127766</v>
+        <v>0.01203374937176704</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.004243567585945129</v>
+        <v>0.004486666992306709</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.01157316099852324</v>
+        <v>0.002332527423277497</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.02893898263573647</v>
+        <v>0.01693476364016533</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0008566770702600479</v>
+        <v>0.0004939356585964561</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.005772230215370655</v>
+        <v>0.01101904548704624</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.009102210402488708</v>
+        <v>0.006884408183395863</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01521079894155264</v>
+        <v>0.0008447356522083282</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.009902095422148705</v>
+        <v>0.005829740781337023</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.009249021299183369</v>
+        <v>0.003337271511554718</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.009187557734549046</v>
+        <v>0.001753323362208903</v>
       </c>
       <c r="EW12" t="n">
-        <v>8.988718036562204e-06</v>
+        <v>0.01075086556375027</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.04310036823153496</v>
+        <v>0.009307452477514744</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01289558131247759</v>
+        <v>0.0158841609954834</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0008972156792879105</v>
+        <v>0.003188122296705842</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.02015914022922516</v>
+        <v>0.003224780783057213</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.01610254868865013</v>
+        <v>0.004513473249971867</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.01109170261770487</v>
+        <v>0.003111609490588307</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.006399001926183701</v>
+        <v>0.008626289665699005</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.01047438848763704</v>
+        <v>0.00888434424996376</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.005906075239181519</v>
+        <v>0.0002072585775749758</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.0361180379986763</v>
+        <v>0.01223673392087221</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.009816481731832027</v>
+        <v>0.003589910920709372</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.004613668657839298</v>
+        <v>0.01453255955129862</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.01620814949274063</v>
+        <v>0.008569080382585526</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02150205336511135</v>
+        <v>0.01382933929562569</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.04680809378623962</v>
+        <v>0.009789028204977512</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.01008263975381851</v>
+        <v>0.00105635670479387</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.01236075535416603</v>
+        <v>0.008589770644903183</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.001348300604149699</v>
+        <v>0.02376476116478443</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.02281255461275578</v>
+        <v>0.01655737496912479</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.008068500086665154</v>
+        <v>0.0213947631418705</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.04698913544416428</v>
+        <v>0.03030078485608101</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.006284123286604881</v>
+        <v>0.02641344256699085</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.03016322478652</v>
+        <v>0.01553357485681772</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.01078638341277838</v>
+        <v>0.01714687049388885</v>
       </c>
       <c r="FV12" t="n">
-        <v>9.19948797672987e-05</v>
+        <v>0.01090442016720772</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.006505043245851994</v>
+        <v>0.01746058464050293</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.006402022670954466</v>
+        <v>0.005094666033983231</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.04678666219115257</v>
+        <v>0.01770684495568275</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0004831606056541204</v>
+        <v>0.00846108328551054</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.001350149512290955</v>
+        <v>0.01032515801489353</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002301093190908432</v>
+        <v>0.03383099660277367</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.02820020355284214</v>
+        <v>0.004467115737497807</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.02651678584516048</v>
+        <v>0.01783309504389763</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.009056156501173973</v>
+        <v>0.01368477940559387</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.005350220017135143</v>
+        <v>0.03397271037101746</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.006024673581123352</v>
+        <v>0.0028561782091856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.000134570014779456</v>
+        <v>0.00388949504122138</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0002789624850265682</v>
+        <v>0.05446913838386536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004895477555692196</v>
+        <v>0.007831327617168427</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007741900044493377</v>
+        <v>0.009990934282541275</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00118981976993382</v>
+        <v>0.01750560663640499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0007293984526768327</v>
+        <v>0.01414038240909576</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001974004262592643</v>
+        <v>0.00498467218130827</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003233375493437052</v>
+        <v>0.006590543314814568</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001418024068698287</v>
+        <v>0.02603121660649776</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001927245903061703</v>
+        <v>0.004780028015375137</v>
       </c>
       <c r="K13" t="n">
-        <v>6.94095651851967e-05</v>
+        <v>0.03686675056815147</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004702087491750717</v>
+        <v>0.001900281524285674</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0002830378361977637</v>
+        <v>0.01473830081522465</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0003132636193186045</v>
+        <v>0.01582867652177811</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0005763988010585308</v>
+        <v>0.01142634358257055</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001915719185490161</v>
+        <v>0.001586141530424356</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003132191952317953</v>
+        <v>0.0006942122709006071</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001609571976587176</v>
+        <v>0.02581331878900528</v>
       </c>
       <c r="S13" t="n">
-        <v>1.880875424831174e-05</v>
+        <v>0.00172713934443891</v>
       </c>
       <c r="T13" t="n">
-        <v>0.000882835709489882</v>
+        <v>0.01462545711547136</v>
       </c>
       <c r="U13" t="n">
-        <v>2.349088026676327e-05</v>
+        <v>0.004540675785392523</v>
       </c>
       <c r="V13" t="n">
-        <v>1.819305725803133e-05</v>
+        <v>4.953856114298105e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.36448894510977e-05</v>
+        <v>0.001028200960718095</v>
       </c>
       <c r="X13" t="n">
-        <v>4.603420893545263e-05</v>
+        <v>0.01170832570642233</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001651276834309101</v>
+        <v>0.005348029546439648</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001211617258377373</v>
+        <v>0.004580465611070395</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0001982392859645188</v>
+        <v>0.004999461118131876</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.383445336017758e-06</v>
+        <v>0.005176686681807041</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001791167887859046</v>
+        <v>0.01292404625564814</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0002821605885401368</v>
+        <v>0.01046613045036793</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001726860646158457</v>
+        <v>0.007973585277795792</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0001548633736092597</v>
+        <v>0.0007214341312646866</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.000166542042279616</v>
+        <v>0.006215708795934916</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.001058314694091678</v>
+        <v>0.001931260921992362</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0001954220497282222</v>
+        <v>0.003995985724031925</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0008368057897314429</v>
+        <v>0.001290126703679562</v>
       </c>
       <c r="AK13" t="n">
-        <v>5.482427513925359e-05</v>
+        <v>0.007312658242881298</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0003701699315570295</v>
+        <v>0.007557212840765715</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0009391196072101593</v>
+        <v>0.0006568922544829547</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.297098737675697e-05</v>
+        <v>0.001384257804602385</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.001286439830437303</v>
+        <v>0.0006564349168911576</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0001562002289574593</v>
+        <v>0.004887244664132595</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.454339745687321e-05</v>
+        <v>0.001420750515535474</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001858071482274681</v>
+        <v>0.001608508056961</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.73432441544719e-05</v>
+        <v>0.002010647673159838</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.536231426754966e-05</v>
+        <v>0.004009912721812725</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0008842651732265949</v>
+        <v>0.04316635802388191</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002250197809189558</v>
+        <v>0.0008020830573514104</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0006045681075192988</v>
+        <v>0.002080354373902082</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0007727933116257191</v>
+        <v>0.003151002805680037</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0003613355802372098</v>
+        <v>0.003936144523322582</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0001961739762919024</v>
+        <v>0.008996070362627506</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001223501050844789</v>
+        <v>0.0008824255783110857</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0001905714743770659</v>
+        <v>0.00384054658934474</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0001768788060871884</v>
+        <v>0.00163949653506279</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0003555671428330243</v>
+        <v>0.008583244867622852</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.00136694370303303</v>
+        <v>0.006714630872011185</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0002705962979234755</v>
+        <v>0.002223988994956017</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.001385136158205569</v>
+        <v>0.01373155135661364</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0004581841349136084</v>
+        <v>0.01210483256727457</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.000492837221827358</v>
+        <v>0.007255099713802338</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001398846041411161</v>
+        <v>0.002528483746573329</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0005043061682954431</v>
+        <v>0.01408283039927483</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0003046141064260155</v>
+        <v>0.00678835017606616</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0004554532933980227</v>
+        <v>0.004422247409820557</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001028823549859226</v>
+        <v>0.0009512414690107107</v>
       </c>
       <c r="BO13" t="n">
-        <v>6.651684088865295e-05</v>
+        <v>0.00110650691203773</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0006682277307845652</v>
+        <v>0.008295269683003426</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0004211075138300657</v>
+        <v>0.01176180131733418</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0004709975619334728</v>
+        <v>0.002190278144553304</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0006594561855308712</v>
+        <v>0.0004820627509616315</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0001347334473393857</v>
+        <v>0.002529080025851727</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0001376542495563626</v>
+        <v>0.0009385953890159726</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0001202190469484776</v>
+        <v>0.02420804090797901</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001253318041563034</v>
+        <v>0.007716290187090635</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0002388324792264029</v>
+        <v>0.001056559616699815</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0003822206635959446</v>
+        <v>0.0009573280112817883</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.000616587174590677</v>
+        <v>0.01141155697405338</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0003186100220773369</v>
+        <v>0.0003270658198744059</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0009770190808922052</v>
+        <v>0.002974028000608087</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0003157515893690288</v>
+        <v>0.003406011965125799</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0001291594526264817</v>
+        <v>0.0004791696555912495</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0003979280882049352</v>
+        <v>0.009760532528162003</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0009141128393821418</v>
+        <v>8.074901415966451e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.519284978712676e-05</v>
+        <v>0.00285780755802989</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0002455418289173394</v>
+        <v>0.0008524451404809952</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0001617457455722615</v>
+        <v>0.003548812586814165</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001556153001729399</v>
+        <v>0.0007486386457458138</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.000343361112754792</v>
+        <v>0.0006123061175458133</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002636978169903159</v>
+        <v>0.005905551835894585</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0002455580106470734</v>
+        <v>0.01083861570805311</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0008063684217631817</v>
+        <v>0.01021759491413832</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0001439423067495227</v>
+        <v>0.001557191368192434</v>
       </c>
       <c r="CP13" t="n">
-        <v>7.778182771289721e-05</v>
+        <v>0.002632639836519957</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.001019329414702952</v>
+        <v>0.01621312834322453</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0005597829003818333</v>
+        <v>0.001508196000941098</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0004705961619038135</v>
+        <v>0.004995760507881641</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.161048930953257e-05</v>
+        <v>0.01021434366703033</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0005912542110309005</v>
+        <v>0.0004137752112001181</v>
       </c>
       <c r="CV13" t="n">
-        <v>3.854798706015572e-05</v>
+        <v>0.001228844397701323</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0003891805245075375</v>
+        <v>0.00841121468693018</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.000970392778981477</v>
+        <v>0.001595095149241388</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.137264527846128e-05</v>
+        <v>0.003350204322487116</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0006383273866958916</v>
+        <v>0.001217982266098261</v>
       </c>
       <c r="DA13" t="n">
-        <v>8.802283264230937e-05</v>
+        <v>0.006010060664266348</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001487318077124655</v>
+        <v>0.0003178579499945045</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0004167630104348063</v>
+        <v>0.0001091597368940711</v>
       </c>
       <c r="DD13" t="n">
-        <v>8.913756755646318e-05</v>
+        <v>0.004272439982742071</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0006774618523195386</v>
+        <v>0.00226470734924078</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0003555045113898814</v>
+        <v>0.01970735378563404</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.000800441368483007</v>
+        <v>0.007375054992735386</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.000595863617490977</v>
+        <v>0.00532333180308342</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0003133424615953118</v>
+        <v>0.001104190363548696</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001135024358518422</v>
+        <v>0.0140651036053896</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0002032957854680717</v>
+        <v>0.008177166804671288</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0002868782903533429</v>
+        <v>0.008184239268302917</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0003124705690424889</v>
+        <v>0.002353630261495709</v>
       </c>
       <c r="DN13" t="n">
-        <v>9.174483420792967e-05</v>
+        <v>0.00011385467951186</v>
       </c>
       <c r="DO13" t="n">
-        <v>9.745977877173573e-05</v>
+        <v>0.0007130546728149056</v>
       </c>
       <c r="DP13" t="n">
-        <v>9.3056820333004e-05</v>
+        <v>0.001923687639646232</v>
       </c>
       <c r="DQ13" t="n">
-        <v>8.600052387919277e-05</v>
+        <v>0.002288258634507656</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0001720231957733631</v>
+        <v>0.005230715498328209</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.00076112529495731</v>
+        <v>0.006779780145734549</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.000175522654899396</v>
+        <v>0.002322059590369463</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0004364294582046568</v>
+        <v>0.002036627847701311</v>
       </c>
       <c r="DV13" t="n">
-        <v>5.966607568552718e-05</v>
+        <v>0.004166124388575554</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0002598658902570605</v>
+        <v>7.541291415691376e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0002573165984358639</v>
+        <v>0.005297218449413776</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0005239229067228734</v>
+        <v>0.003952409140765667</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0004325839108787477</v>
+        <v>0.002940126694738865</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0004211995983496308</v>
+        <v>0.005762606859207153</v>
       </c>
       <c r="EB13" t="n">
-        <v>9.850383503362536e-05</v>
+        <v>0.001823708415031433</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0001402970810886472</v>
+        <v>0.00409660954028368</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0003040505980607122</v>
+        <v>0.005093760322779417</v>
       </c>
       <c r="EE13" t="n">
-        <v>2.986952131323051e-05</v>
+        <v>0.004272664897143841</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0007159633096307516</v>
+        <v>0.002295807003974915</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0001901117357192561</v>
+        <v>0.003335716668516397</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.00080722919665277</v>
+        <v>0.000746320525649935</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001417262974428013</v>
+        <v>0.001752416603267193</v>
       </c>
       <c r="EJ13" t="n">
-        <v>7.936294423416257e-05</v>
+        <v>0.001514891046099365</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0007920232019387186</v>
+        <v>0.003288301406428218</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0001269437780138105</v>
+        <v>0.004171366337686777</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0007910049753263593</v>
+        <v>0.001742289634421468</v>
       </c>
       <c r="EN13" t="n">
-        <v>2.588813913462218e-05</v>
+        <v>0.008319678716361523</v>
       </c>
       <c r="EO13" t="n">
-        <v>9.17495708563365e-05</v>
+        <v>0.003306529019027948</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0006164918886497617</v>
+        <v>0.005233101546764374</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0003127632080577314</v>
+        <v>0.002559109358116984</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0001586026482982561</v>
+        <v>0.002554344013333321</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0002460796968080103</v>
+        <v>0.001525200204923749</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.00017772545106709</v>
+        <v>0.01131982542574406</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0001732402888592333</v>
+        <v>0.001002727774903178</v>
       </c>
       <c r="EV13" t="n">
-        <v>5.657264046021737e-05</v>
+        <v>0.001800132333301008</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0006482979515567422</v>
+        <v>0.0006005263421684504</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.000267877388978377</v>
+        <v>0.001517709577456117</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0002759774506557733</v>
+        <v>0.008816146291792393</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0009727177675813437</v>
+        <v>0.001683362410403788</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001018903785734437</v>
+        <v>0.002811662619933486</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0005032233893871307</v>
+        <v>0.0001596082001924515</v>
       </c>
       <c r="FC13" t="n">
-        <v>8.022772817639634e-05</v>
+        <v>0.005127612501382828</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001381403708364815</v>
+        <v>0.0003912764950655401</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0005498935934156179</v>
+        <v>0.0008174838148988783</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0002069825131911784</v>
+        <v>0.003280670382082462</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0003598463954403996</v>
+        <v>0.001196100376546383</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0004550270969048142</v>
+        <v>0.006393744610249996</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0007565353298559785</v>
+        <v>0.003436600556597114</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.000597636157181114</v>
+        <v>0.003538593417033553</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0003457557468209416</v>
+        <v>0.002946653170511127</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0005717843887396157</v>
+        <v>0.004830976482480764</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0004591142060235143</v>
+        <v>0.001531386631540954</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0001666972821112722</v>
+        <v>9.440211579203606e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0002070494520012289</v>
+        <v>0.003756976220756769</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0009930807864293456</v>
+        <v>0.001004367368295789</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.001233739894814789</v>
+        <v>0.017531618475914</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0008141080616042018</v>
+        <v>0.009393983520567417</v>
       </c>
       <c r="FS13" t="n">
-        <v>5.526066161110066e-06</v>
+        <v>0.01121931150555611</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0005617037531919777</v>
+        <v>0.009298725053668022</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0003397857653908432</v>
+        <v>0.0003807061584666371</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0003126504889223725</v>
+        <v>0.004530768841505051</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.110609784722328e-07</v>
+        <v>0.0008149486966431141</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0004653548821806908</v>
+        <v>0.002491933293640614</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0005302625941112638</v>
+        <v>0.005776767153292894</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0001802305487217382</v>
+        <v>0.007935477420687675</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.000158461945829913</v>
+        <v>0.006883746944367886</v>
       </c>
       <c r="GB13" t="n">
-        <v>3.857086994685233e-05</v>
+        <v>0.0007201218977570534</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0005390026490204036</v>
+        <v>0.01281345076858997</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.00090587924933061</v>
+        <v>0.001826690859161317</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0001057109620887786</v>
+        <v>0.002566391136497259</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0003020762233063579</v>
+        <v>0.004246440716087818</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0002219812595285475</v>
+        <v>0.001370228594169021</v>
       </c>
     </row>
     <row r="14">
@@ -8401,2278 +8401,2278 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.00626803282648325</v>
+        <v>0.1179954558610916</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03483948484063148</v>
+        <v>0.7245736122131348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2288358211517334</v>
+        <v>0.553650438785553</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09472253918647766</v>
+        <v>0.3561988770961761</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01121102273464203</v>
+        <v>0.5191683173179626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4339043498039246</v>
+        <v>0.06288135051727295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03413467481732368</v>
+        <v>0.2216376960277557</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1362175792455673</v>
+        <v>0.1189236715435982</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06568499654531479</v>
+        <v>0.3326237499713898</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005584463011473417</v>
+        <v>0.06247169896960258</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01337870489805937</v>
+        <v>0.5239468216896057</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1978156119585037</v>
+        <v>0.4392446875572205</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03112378902733326</v>
+        <v>0.3956593573093414</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04669799655675888</v>
+        <v>0.7366683483123779</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4795021414756775</v>
+        <v>0.2211258113384247</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04278865084052086</v>
+        <v>0.1870172172784805</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1020181328058243</v>
+        <v>0.02742386050522327</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1605936586856842</v>
+        <v>0.2233647108078003</v>
       </c>
       <c r="S15" t="n">
-        <v>0.074502132833004</v>
+        <v>0.01684434711933136</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005663127172738314</v>
+        <v>0.2011730968952179</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004860363900661469</v>
+        <v>0.02322744578123093</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04138081148266792</v>
+        <v>0.1464105248451233</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02895119413733482</v>
+        <v>0.02363389916718006</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05729969590902328</v>
+        <v>0.1499934643507004</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02187857031822205</v>
+        <v>0.02618939429521561</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05091039836406708</v>
+        <v>0.1118193939328194</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01927844434976578</v>
+        <v>0.06919825822114944</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01273079961538315</v>
+        <v>0.06374611705541611</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.06627374887466431</v>
+        <v>0.1798637360334396</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.003632412292063236</v>
+        <v>0.06156739965081215</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.09254461526870728</v>
+        <v>0.0165023822337389</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1747458577156067</v>
+        <v>0.02586503885686398</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01403592340648174</v>
+        <v>0.1318933814764023</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01404403615742922</v>
+        <v>0.07290662825107574</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.08384790271520615</v>
+        <v>0.08569080382585526</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.03215545415878296</v>
+        <v>0.01489409990608692</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.02201162278652191</v>
+        <v>0.0673648938536644</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.02878105081617832</v>
+        <v>0.3548712730407715</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1413765996694565</v>
+        <v>0.01495343819260597</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01004213094711304</v>
+        <v>0.03189243003726006</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03396032005548477</v>
+        <v>0.05294793844223022</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.05939263850450516</v>
+        <v>0.1539498865604401</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.004711220040917397</v>
+        <v>0.02731499820947647</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.004308320581912994</v>
+        <v>0.07129107415676117</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.00277458131313324</v>
+        <v>0.1553135365247726</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.01736579276621342</v>
+        <v>0.2147783488035202</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.001851599663496017</v>
+        <v>0.7179211974143982</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1559182554483414</v>
+        <v>0.3531831502914429</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1040152236819267</v>
+        <v>0.001853153109550476</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.07223334163427353</v>
+        <v>0.04277968406677246</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1361570209264755</v>
+        <v>0.1068322062492371</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.02681112103164196</v>
+        <v>0.06497170776128769</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0002576708793640137</v>
+        <v>0.01692872308194637</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.02771801315248013</v>
+        <v>0.1501053869724274</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.01140840910375118</v>
+        <v>0.0338025689125061</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.04587338119745255</v>
+        <v>0.02584283053874969</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.009277839213609695</v>
+        <v>0.1401838511228561</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.04150465875864029</v>
+        <v>0.2547204196453094</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.06508257985115051</v>
+        <v>0.5122390389442444</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1519429832696915</v>
+        <v>0.07796400785446167</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.07548024505376816</v>
+        <v>0.1209135055541992</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.003957693465054035</v>
+        <v>0.05385633558034897</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0257649477571249</v>
+        <v>0.1983236372470856</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.01812568306922913</v>
+        <v>0.2460772395133972</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.007088646292686462</v>
+        <v>0.1857943385839462</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.02160711586475372</v>
+        <v>0.1089174747467041</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.01669222116470337</v>
+        <v>0.03982216119766235</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.005713788792490959</v>
+        <v>0.3603243827819824</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.03278367593884468</v>
+        <v>0.1286254823207855</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.00599061232060194</v>
+        <v>0.1120667681097984</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.04987557977437973</v>
+        <v>0.04887863621115685</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.03664533048868179</v>
+        <v>0.09852944314479828</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.03502018749713898</v>
+        <v>0.1719565093517303</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.03745404258370399</v>
+        <v>0.3764921128749847</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.06796687841415405</v>
+        <v>0.4152005910873413</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.01589850336313248</v>
+        <v>0.08579336851835251</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.006831131409853697</v>
+        <v>0.02295964770019054</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.1737475097179413</v>
+        <v>0.04557163640856743</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.03523989766836166</v>
+        <v>0.1320779025554657</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.03690757229924202</v>
+        <v>0.1219485998153687</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.02063064649701118</v>
+        <v>0.04694436490535736</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.006726290099322796</v>
+        <v>0.03328284621238708</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.862435601651669e-05</v>
+        <v>0.1376741975545883</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.03388050571084023</v>
+        <v>0.05498509109020233</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.01862024143338203</v>
+        <v>0.1362212747335434</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.007949026301503181</v>
+        <v>0.1255175769329071</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.08381330966949463</v>
+        <v>0.04230382665991783</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.01813184097409248</v>
+        <v>0.005295766517519951</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.03548111766576767</v>
+        <v>0.0441996231675148</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.008655146695673466</v>
+        <v>0.07614822685718536</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.04622189328074455</v>
+        <v>0.270976722240448</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.002421996556222439</v>
+        <v>0.03531821072101593</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.09646470844745636</v>
+        <v>0.06164440140128136</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.005524074658751488</v>
+        <v>0.1643382608890533</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.07658077776432037</v>
+        <v>0.1283021569252014</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.03251141309738159</v>
+        <v>0.1753357201814651</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.03268318623304367</v>
+        <v>0.03366709500551224</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0906122624874115</v>
+        <v>0.04636888206005096</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.05488811433315277</v>
+        <v>0.01099900994449854</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.01785970665514469</v>
+        <v>0.04423800855875015</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0007485420210286975</v>
+        <v>0.07590427994728088</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.02499452978372574</v>
+        <v>0.04587899148464203</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.01959303952753544</v>
+        <v>0.1113647371530533</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.009615915827453136</v>
+        <v>0.1054073125123978</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.09587708115577698</v>
+        <v>0.0492975041270256</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.01050548069179058</v>
+        <v>0.01933104731142521</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.03840551897883415</v>
+        <v>0.03785388171672821</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0008425422129221261</v>
+        <v>0.1247885152697563</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.04796109348535538</v>
+        <v>0.04614972323179245</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.002583102323114872</v>
+        <v>0.2443691492080688</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.06459064036607742</v>
+        <v>0.08539529144763947</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.09414884448051453</v>
+        <v>0.3199836909770966</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.1109888777136803</v>
+        <v>0.1472781300544739</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0529615543782711</v>
+        <v>0.2431632578372955</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.001036211848258972</v>
+        <v>0.1027106940746307</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.05315443500876427</v>
+        <v>0.1403402537107468</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.03883878886699677</v>
+        <v>0.05799055472016335</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.03333064541220665</v>
+        <v>0.1307366937398911</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.01700938120484352</v>
+        <v>0.07498397678136826</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.01032729353755713</v>
+        <v>0.0618610717356205</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.02478637546300888</v>
+        <v>0.13697749376297</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.003298786235973239</v>
+        <v>0.01508177816867828</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.03658023849129677</v>
+        <v>0.1446404010057449</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.02264036238193512</v>
+        <v>0.02892143651843071</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.04943319782614708</v>
+        <v>0.01723858900368214</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.03175454959273338</v>
+        <v>0.1035550981760025</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.03214787691831589</v>
+        <v>0.1687821894884109</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.008632541634142399</v>
+        <v>0.04525746405124664</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.02196894213557243</v>
+        <v>0.07951448112726212</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.01506028696894646</v>
+        <v>0.1576010584831238</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.009344952180981636</v>
+        <v>0.1331517249345779</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.03994181752204895</v>
+        <v>0.193540096282959</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.04369482398033142</v>
+        <v>0.0753248855471611</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.00464856019243598</v>
+        <v>0.02715791389346123</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.06467721611261368</v>
+        <v>0.04583602398633957</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.00589367002248764</v>
+        <v>0.01814066991209984</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.05483512580394745</v>
+        <v>0.03542168438434601</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.03865671157836914</v>
+        <v>0.01936440728604794</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.05242930352687836</v>
+        <v>0.1566064059734344</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.01571854948997498</v>
+        <v>0.1658390909433365</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.1184815317392349</v>
+        <v>0.09346780925989151</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.003531714901328087</v>
+        <v>0.1088596284389496</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.0349012091755867</v>
+        <v>0.05023240298032761</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.05770376324653625</v>
+        <v>0.1320904344320297</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.004062946885824203</v>
+        <v>0.04708041250705719</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.04336923733353615</v>
+        <v>0.05628045648336411</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.01085628475993872</v>
+        <v>0.1607698947191238</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.02711928077042103</v>
+        <v>0.02235675603151321</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.02134022861719131</v>
+        <v>0.1342644244432449</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.09980832040309906</v>
+        <v>0.1373536884784698</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.008504625409841537</v>
+        <v>0.1474252194166183</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.03859623894095421</v>
+        <v>0.1515420228242874</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.007016486022621393</v>
+        <v>0.2788904309272766</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.005441336426883936</v>
+        <v>0.03071307763457298</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.01453261729329824</v>
+        <v>0.07128638029098511</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0220642201602459</v>
+        <v>0.03584695979952812</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.01596308127045631</v>
+        <v>0.1437828093767166</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0009889183565974236</v>
+        <v>0.147761270403862</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0807325541973114</v>
+        <v>0.06312451511621475</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0185263380408287</v>
+        <v>0.03151446208357811</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.03584687411785126</v>
+        <v>0.07119894772768021</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.005054349079728127</v>
+        <v>0.05735679715871811</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.01470839977264404</v>
+        <v>0.1659392416477203</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.004274135455489159</v>
+        <v>0.1794701963663101</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.0492546334862709</v>
+        <v>0.1564374268054962</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01441287901252508</v>
+        <v>0.03395921736955643</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0009566289372742176</v>
+        <v>0.1198951601982117</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.01040919497609138</v>
+        <v>0.006635577417910099</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0482199564576149</v>
+        <v>0.1392398923635483</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.01724318042397499</v>
+        <v>0.02745651081204414</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.02497866936028004</v>
+        <v>0.1260387450456619</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.1025170534849167</v>
+        <v>0.07948105037212372</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.02271693572402</v>
+        <v>0.00344080850481987</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.07461577653884888</v>
+        <v>0.2031301110982895</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.007616659626364708</v>
+        <v>0.361552894115448</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.02228273823857307</v>
+        <v>0.01047282852232456</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.09115574508905411</v>
+        <v>0.005451124161481857</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.007200204767286777</v>
+        <v>0.04898259788751602</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.007937993854284286</v>
+        <v>0.2228281050920486</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.06432702392339706</v>
+        <v>0.005837056785821915</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.0629524290561676</v>
+        <v>0.09214704483747482</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.03400592133402824</v>
+        <v>0.007820539176464081</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.02704830467700958</v>
+        <v>0.0949644148349762</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03410894796252251</v>
+        <v>0.1034960299730301</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.06178876012563705</v>
+        <v>0.03884811326861382</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.04773038625717163</v>
+        <v>0.2256513386964798</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.04684417694807053</v>
+        <v>0.2172484397888184</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.07873977720737457</v>
+        <v>0.2849958837032318</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.07493923604488373</v>
+        <v>0.02438386157155037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.006111064925789833</v>
+        <v>0.0004423977225087583</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0009272117167711258</v>
+        <v>0.002720593474805355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02132905647158623</v>
+        <v>0.001103228190913796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01014143414795399</v>
+        <v>0.0008038835367187858</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01626184582710266</v>
+        <v>1.234703086083755e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007279145065695047</v>
+        <v>0.0001681346038822085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005604841746389866</v>
+        <v>5.426781717687845e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01829922012984753</v>
+        <v>0.0005826178239658475</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002170642372220755</v>
+        <v>0.0007358287693932652</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004276784136891365</v>
+        <v>0.0004009778203908354</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009965538047254086</v>
+        <v>0.002035234123468399</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02445517852902412</v>
+        <v>0.0006773346103727818</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002691387664526701</v>
+        <v>0.0008397717028856277</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01914204843342304</v>
+        <v>0.0004919846542179585</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003594474401324987</v>
+        <v>0.0002769131679087877</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005160037893801928</v>
+        <v>5.04566851304844e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02142669260501862</v>
+        <v>0.0001091496451408602</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01290843915194273</v>
+        <v>0.0004270084027666599</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0004243413568474352</v>
+        <v>4.670709131460171e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004469601437449455</v>
+        <v>0.000413580855820328</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00146843958646059</v>
+        <v>0.000163715667440556</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0007575316703878343</v>
+        <v>2.568276249803603e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.003147391602396965</v>
+        <v>2.474414941389114e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001935208332724869</v>
+        <v>0.0009112699190154672</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.002244875766336918</v>
+        <v>0.0001216631280840375</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01286180689930916</v>
+        <v>0.0001896623871289194</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.006186430342495441</v>
+        <v>0.000143599885632284</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0007701106369495392</v>
+        <v>0.0001283975871047005</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.006405680440366268</v>
+        <v>0.0007151676691137254</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0002875123755075037</v>
+        <v>0.0003514423733577132</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.004347281064838171</v>
+        <v>0.000192163250176236</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.008045680820941925</v>
+        <v>0.0002007869188673794</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.001066504046320915</v>
+        <v>6.382034916896373e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.01152640022337437</v>
+        <v>0.0001579255767865106</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.01233675982803106</v>
+        <v>0.0002659213496372104</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.006753046065568924</v>
+        <v>0.0001451201969757676</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.00181736727245152</v>
+        <v>0.0001853542780736461</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.003168700961396098</v>
+        <v>0.0006246585980989039</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.003401361173018813</v>
+        <v>4.412811904330738e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.001395897939801216</v>
+        <v>0.0001417546300217509</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01246054004877806</v>
+        <v>0.0001810684188967571</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.002348959678784013</v>
+        <v>8.769903797656298e-05</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.000709806103259325</v>
+        <v>1.554188202135265e-06</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.000838595733512193</v>
+        <v>1.990451710298657e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.001736684469506145</v>
+        <v>0.000391546287573874</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.009070173837244511</v>
+        <v>0.0001188768219435588</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.009229103103280067</v>
+        <v>0.002328423084691167</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.007787915877997875</v>
+        <v>0.0003995274018961936</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.008898302912712097</v>
+        <v>8.608817734057084e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.01488285977393389</v>
+        <v>0.0007660094415768981</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.006621001753956079</v>
+        <v>0.0002923213760368526</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0005764685338363051</v>
+        <v>0.0002997444535139948</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.00163853564299643</v>
+        <v>0.0006079791928641498</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.008017915301024914</v>
+        <v>0.0002285741793457419</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.00245210574939847</v>
+        <v>0.0001077863416867331</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.00287047540768981</v>
+        <v>0.0003140184562653303</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001604766817763448</v>
+        <v>0.0006933818804100156</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.005183854606002569</v>
+        <v>0.0003370646736584604</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0251291561871767</v>
+        <v>0.001279184129089117</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.002824811963364482</v>
+        <v>0.0005237337318249047</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.001332230167463422</v>
+        <v>0.0001986755232792348</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.01482098642736673</v>
+        <v>0.0001522961392765865</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.001878567738458514</v>
+        <v>0.0004520810325630009</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.001113729900680482</v>
+        <v>0.0007226244197227061</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.001321013085544109</v>
+        <v>0.0002240711328340694</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.005390191916376352</v>
+        <v>0.0003448037605267018</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.001510576461441815</v>
+        <v>1.068224082700908e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.002911924617365003</v>
+        <v>0.001103774178773165</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.003557084128260612</v>
+        <v>0.0003407956101000309</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.005344139412045479</v>
+        <v>0.0005624489858746529</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.005892235785722733</v>
+        <v>0.0008369488641619682</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.00370380561798811</v>
+        <v>3.626850229920819e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.003422374371439219</v>
+        <v>0.0001595063804415986</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0001987252617254853</v>
+        <v>0.001099388464353979</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.009728522971272469</v>
+        <v>0.0007216322119347751</v>
       </c>
       <c r="BX16" t="n">
-        <v>1.194549258798361e-05</v>
+        <v>0.0001738216378726065</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.0008786043617874384</v>
+        <v>0.0008294074796140194</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0003274559858255088</v>
+        <v>0.0007744083995930851</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.001234500668942928</v>
+        <v>0.0003060206072404981</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.006720350589603186</v>
+        <v>4.071644798386842e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0003585127415135503</v>
+        <v>0.0002687209052965045</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0007817543810233474</v>
+        <v>0.0002113850496243685</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.003702972317114472</v>
+        <v>0.0004899601917713881</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.003048280486837029</v>
+        <v>2.647373548825271e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0004978779470548034</v>
+        <v>0.0001247965556103736</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.004363186657428741</v>
+        <v>0.0001963181712199003</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.001746287802234292</v>
+        <v>0.0001289905194425955</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.001635477878153324</v>
+        <v>0.0002441697288304567</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0003428077034186572</v>
+        <v>0.0001010914274957031</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0005568381166085601</v>
+        <v>0.0001843692880356684</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.0001250484492629766</v>
+        <v>0.0005792363663204014</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.004954055417329073</v>
+        <v>0.0005459861131384969</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.005187049973756075</v>
+        <v>0.0002599525905679911</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.001823114464059472</v>
+        <v>0.0003621659707278013</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.007314614485949278</v>
+        <v>0.0004079086647834629</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.008350865915417671</v>
+        <v>0.0001468673290219158</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.005385480355471373</v>
+        <v>8.145933679770678e-05</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.001353716477751732</v>
+        <v>3.362729330547154e-06</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.007511816918849945</v>
+        <v>0.000269106007181108</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0001350002130493522</v>
+        <v>0.0002351995935896412</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.004623023793101311</v>
+        <v>0.000414143200032413</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.00410895049571991</v>
+        <v>5.038538802182302e-06</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.0002991469809785485</v>
+        <v>0.000126938073663041</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.006286014337092638</v>
+        <v>0.000186411605682224</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.003047718899324536</v>
+        <v>0.0001813182752812281</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.001308622071519494</v>
+        <v>0.0002666646905709058</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.001445506466552615</v>
+        <v>2.549780037952587e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0001209747570101172</v>
+        <v>0.0001980165397981182</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.01014576014131308</v>
+        <v>0.0001504468091297895</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.00172473955899477</v>
+        <v>0.0006821585702709854</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.003507907968014479</v>
+        <v>0.0002645894710440189</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.004031120333820581</v>
+        <v>0.001001633238047361</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.007344005163758993</v>
+        <v>0.001208543428219855</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.007569556590169668</v>
+        <v>7.726356125203893e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.001219468074850738</v>
+        <v>0.0001139372398029082</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.001719040330499411</v>
+        <v>0.0003297520743217319</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.0007248301990330219</v>
+        <v>0.000227872165851295</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.00184817030094564</v>
+        <v>0.0001336927380179986</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.003692710073664784</v>
+        <v>0.000146778256748803</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.0005876186769455671</v>
+        <v>2.371630762354471e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0004379184683784842</v>
+        <v>0.0003387305187061429</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01023616082966328</v>
+        <v>0.0001936327898874879</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.003039558418095112</v>
+        <v>9.623401274438947e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.001128767733462155</v>
+        <v>4.124718543607742e-06</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.009863128885626793</v>
+        <v>6.807074532844126e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0001145596615970135</v>
+        <v>0.0002454408095218241</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.003060425166040659</v>
+        <v>0.0002593372773844749</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0004545620176941156</v>
+        <v>0.0002013613993767649</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.002651138696819544</v>
+        <v>7.545740663772449e-05</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.003052821848541498</v>
+        <v>0.0001403209316777065</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0009975676657631993</v>
+        <v>0.0005185318877920508</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.003738341853022575</v>
+        <v>7.204434950836003e-07</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.001871173037216067</v>
+        <v>0.0001608385937288404</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.001449179020710289</v>
+        <v>0.0003720436943694949</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.001179278828203678</v>
+        <v>9.326876170234755e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.008794763125479221</v>
+        <v>0.0001450067211408168</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.002124537480995059</v>
+        <v>0.0003073281841352582</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.00282695610076189</v>
+        <v>4.001444176537916e-05</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.004137752112001181</v>
+        <v>0.000173736727447249</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.006714539136737585</v>
+        <v>0.000158255803398788</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.003982974216341972</v>
+        <v>0.0001615860819583759</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.002011270495131612</v>
+        <v>0.0004516593762673438</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.003664650721475482</v>
+        <v>0.0001602527336217463</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.007338087074458599</v>
+        <v>0.0002287793322466314</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.001400714972987771</v>
+        <v>3.009736974490806e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.009345836006104946</v>
+        <v>0.000520499364938587</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.000233429207582958</v>
+        <v>0.0002027924929279834</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.003989876247942448</v>
+        <v>0.0001073276944225654</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.003854106180369854</v>
+        <v>8.699685167812277e-06</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.0006369708571583033</v>
+        <v>0.000420468277297914</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.002322718966752291</v>
+        <v>0.0005507127498276532</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.008846916258335114</v>
+        <v>0.0004111688758712262</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.0007969112484715879</v>
+        <v>0.0008643317851237953</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.00126441684551537</v>
+        <v>0.0001737738639349118</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.003774168435484171</v>
+        <v>0.0005327442777343094</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.003766402835026383</v>
+        <v>9.918215801008046e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.001732626813463867</v>
+        <v>0.0001868357940111309</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.007117816712707281</v>
+        <v>9.251331357518211e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.001302866148762405</v>
+        <v>0.0001941703085321933</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.001521627185866237</v>
+        <v>0.0002932593051809818</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.002033268334344029</v>
+        <v>5.282607162371278e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0001652273931540549</v>
+        <v>0.0001680937421042472</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.007165835704654455</v>
+        <v>0.0003446410410106182</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.003373631741851568</v>
+        <v>0.0002454308851156384</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.007799482904374599</v>
+        <v>0.0001607360027264804</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.001806652173399925</v>
+        <v>0.0003151755954604596</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.004169297404587269</v>
+        <v>0.0006070555537007749</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.005935521330684423</v>
+        <v>8.220413292292506e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.006977618671953678</v>
+        <v>0.000309436465613544</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.0001588522573001683</v>
+        <v>0.000168986662174575</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.00466232979670167</v>
+        <v>0.0004024838854093105</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.01936864480376244</v>
+        <v>0.0003062065807171166</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.008538743481040001</v>
+        <v>0.0004432300920598209</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.005826106294989586</v>
+        <v>0.0004655091906897724</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.007001014426350594</v>
+        <v>0.0001429999829269946</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.004838688764721155</v>
+        <v>9.413560474058613e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.0006109217647463083</v>
+        <v>0.0006545752985402942</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.002475374843925238</v>
+        <v>0.0001778381993062794</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.0001025023520924151</v>
+        <v>0.0007341532618738711</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.007044512778520584</v>
+        <v>0.0003576233284547925</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.007292153313755989</v>
+        <v>0.0003320243558846414</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.005110383499413729</v>
+        <v>0.0001905409153550863</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.002527627861127257</v>
+        <v>0.0001745418703649193</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.00290612829849124</v>
+        <v>0.0001764562912285328</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.002550808247178793</v>
+        <v>0.0001549720327602699</v>
       </c>
       <c r="GD16" t="n">
-        <v>6.804522126913071e-05</v>
+        <v>0.0005348482518456876</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.00263509782962501</v>
+        <v>0.0007659352850168943</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.0002702214987948537</v>
+        <v>0.0006436946569010615</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.003097311593592167</v>
+        <v>0.0002628852962516248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03622373938560486</v>
+        <v>0.005096462089568377</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1832724958658218</v>
+        <v>0.01452082488685846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2863394320011139</v>
+        <v>0.0009257447673007846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05246721208095551</v>
+        <v>0.001674993894994259</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04791027307510376</v>
+        <v>0.000941739184781909</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02569789066910744</v>
+        <v>0.006340477615594864</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01429883670061827</v>
+        <v>0.003392074722796679</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04515787959098816</v>
+        <v>0.0003247043641749769</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1019697412848473</v>
+        <v>0.001472840318456292</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06735077500343323</v>
+        <v>0.004337824881076813</v>
       </c>
       <c r="K17" t="n">
-        <v>0.202019140124321</v>
+        <v>0.01023000199347734</v>
       </c>
       <c r="L17" t="n">
-        <v>0.310661107301712</v>
+        <v>0.001674646977335215</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07110584527254105</v>
+        <v>0.001156921032816172</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06444800645112991</v>
+        <v>0.002177807502448559</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01971423998475075</v>
+        <v>0.005850270390510559</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04574102908372879</v>
+        <v>0.002916292985901237</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03248917311429977</v>
+        <v>0.002197500318288803</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1324045211076736</v>
+        <v>0.002765697194263339</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01819278858602047</v>
+        <v>0.0001545804407214746</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0721597895026207</v>
+        <v>0.002264206996187568</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05047998577356339</v>
+        <v>0.002255890984088182</v>
       </c>
       <c r="V17" t="n">
-        <v>0.005480723455548286</v>
+        <v>0.001442861859686673</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05603631585836411</v>
+        <v>0.0009198497282341123</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01824437826871872</v>
+        <v>0.004342800937592983</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04672467336058617</v>
+        <v>0.001115962048061192</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04642882570624352</v>
+        <v>0.000912324758246541</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003177216276526451</v>
+        <v>0.001193194766528904</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.04123698174953461</v>
+        <v>0.0006436843541450799</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1181911826133728</v>
+        <v>0.002828273689374328</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001960854977369308</v>
+        <v>0.002144695026800036</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02068447507917881</v>
+        <v>0.0005108289187774062</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.05335217341780663</v>
+        <v>0.0007444171933457255</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.02601378411054611</v>
+        <v>0.001768668531440198</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.07839685678482056</v>
+        <v>0.001835268456488848</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0375332236289978</v>
+        <v>0.0003322549746371806</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.09345012158155441</v>
+        <v>0.0007006722153164446</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.006823625415563583</v>
+        <v>0.0008383343229070306</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.01821013912558556</v>
+        <v>0.002536492887884378</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.06481753289699554</v>
+        <v>0.0005993495578877628</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.02859459444880486</v>
+        <v>0.0004095047479495406</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.005307664629071951</v>
+        <v>5.092177161714062e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.004592434503138065</v>
+        <v>0.00248913443647325</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01602814719080925</v>
+        <v>0.0004866714880336076</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.01695520058274269</v>
+        <v>0.0005315921152941883</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0266887005418539</v>
+        <v>0.001201152219437063</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0127525832504034</v>
+        <v>0.001150363241322339</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.06934824585914612</v>
+        <v>0.009288445115089417</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.108092725276947</v>
+        <v>0.0002213424595538527</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0851660817861557</v>
+        <v>0.0002153426175937057</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.09670732170343399</v>
+        <v>0.002624263055622578</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.02925285883247852</v>
+        <v>0.0001763357140589505</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.02343617007136345</v>
+        <v>0.0003574290312826633</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.008556962013244629</v>
+        <v>0.0003757768427021801</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0244966596364975</v>
+        <v>0.001342804986052215</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.03678666800260544</v>
+        <v>0.002324854955077171</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.08575291186571121</v>
+        <v>0.003448975505307317</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.06738636642694473</v>
+        <v>0.001640480360947549</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.001384500414133072</v>
+        <v>0.0005370526341721416</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1459142416715622</v>
+        <v>0.002616359619423747</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.02410526946187019</v>
+        <v>0.004260574001818895</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.005553370341658592</v>
+        <v>0.00174826558213681</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.04069231450557709</v>
+        <v>0.001956050982698798</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.008269943296909332</v>
+        <v>0.002191226929426193</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.02989933267235756</v>
+        <v>0.00123516982421279</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.003896736539900303</v>
+        <v>0.001910330378450453</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.04073405265808105</v>
+        <v>0.0009344645659439266</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.04724058881402016</v>
+        <v>0.0006811257917433977</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.02391668781638145</v>
+        <v>0.001672972459346056</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.06074722483754158</v>
+        <v>0.00350512657314539</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.03358667343854904</v>
+        <v>0.001283998950384557</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.04073088616132736</v>
+        <v>0.002212209161370993</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.00735204853117466</v>
+        <v>0.002255439525470138</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.02334512770175934</v>
+        <v>0.0003824165905825794</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.07518438994884491</v>
+        <v>0.006030614953488111</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0991620272397995</v>
+        <v>0.0008952255011536181</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.05447432398796082</v>
+        <v>0.002131470246240497</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.02450918592512608</v>
+        <v>0.001102924579754472</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.01948820427060127</v>
+        <v>0.002735476708039641</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.002726573497056961</v>
+        <v>0.0008960614795796573</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.07837595790624619</v>
+        <v>0.0006349622271955013</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.03873602300882339</v>
+        <v>0.0005678322049789131</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.004023361951112747</v>
+        <v>0.001242568250745535</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0328056700527668</v>
+        <v>0.001829162007197738</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.04883752018213272</v>
+        <v>0.0003689855802804232</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.01581908389925957</v>
+        <v>0.000632608775049448</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0002240301109850407</v>
+        <v>0.001404861453920603</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.01696043089032173</v>
+        <v>0.001540221739560366</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.009958344511687756</v>
+        <v>0.0001039346243487671</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.002686930820345879</v>
+        <v>0.0003173333825543523</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.02749096602201462</v>
+        <v>8.048550807870924e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.04965044185519218</v>
+        <v>0.0007563268882222474</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0027364999987185</v>
+        <v>0.001541835255920887</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.04239704459905624</v>
+        <v>0.0009865931933745742</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.005870690103620291</v>
+        <v>0.0002072507631964982</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.09106311202049255</v>
+        <v>0.003076067892834544</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.02868373319506645</v>
+        <v>0.0004860771005041897</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.007970252074301243</v>
+        <v>0.00154484563972801</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.05831943079829216</v>
+        <v>0.0009016319527290761</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.03731515631079674</v>
+        <v>0.001209879177622497</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.00670455489307642</v>
+        <v>0.0006116810254752636</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.02988399937748909</v>
+        <v>0.001975019229575992</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.04803028702735901</v>
+        <v>0.0004438167670741677</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.02750208973884583</v>
+        <v>0.0006268426077440381</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.02910387143492699</v>
+        <v>0.001020957133732736</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.01612580195069313</v>
+        <v>0.002842637477442622</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.009271696209907532</v>
+        <v>0.0002141429140465334</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.009566164575517178</v>
+        <v>0.0002919842081610113</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.01845323666930199</v>
+        <v>1.819421595428139e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.04826433584094048</v>
+        <v>0.001530601643025875</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.03112712502479553</v>
+        <v>0.004220990929752588</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.001706657931208611</v>
+        <v>0.001858257572166622</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.03568725660443306</v>
+        <v>0.002234314568340778</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.00728854164481163</v>
+        <v>0.004928800277411938</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.01889000833034515</v>
+        <v>0.00473423209041357</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.009555371478199959</v>
+        <v>0.000317342288326472</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.08084693551063538</v>
+        <v>2.563487214501947e-06</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.02717069163918495</v>
+        <v>0.002382416510954499</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.02893773838877678</v>
+        <v>0.0004794494598172605</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.02782154828310013</v>
+        <v>2.414494520053267e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.008321868255734444</v>
+        <v>0.0006338655948638916</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.04083871096372604</v>
+        <v>0.00195042381528765</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.06007886677980423</v>
+        <v>1.094619801733643e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.006227096542716026</v>
+        <v>0.0003616630856413394</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.03872654587030411</v>
+        <v>0.0003972184204030782</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.02040987461805344</v>
+        <v>0.001256697112694383</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.009920984506607056</v>
+        <v>0.001971959136426449</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.04581659287214279</v>
+        <v>0.0006800915580242872</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.007056760601699352</v>
+        <v>0.001162219210527837</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.001831481698900461</v>
+        <v>0.001226567663252354</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.008608683943748474</v>
+        <v>0.0007439870969392359</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.07588616758584976</v>
+        <v>0.0003576047893147916</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.01869275607168674</v>
+        <v>0.00253986893221736</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.04474258422851562</v>
+        <v>6.668528658337891e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.03690516948699951</v>
+        <v>0.0007867139647714794</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.009893754497170448</v>
+        <v>0.001415924169123173</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.01255260594189167</v>
+        <v>0.0001333153049927205</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.007166754454374313</v>
+        <v>0.0005641237366944551</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.04781270772218704</v>
+        <v>0.000407014274969697</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.04403378814458847</v>
+        <v>0.001468521310016513</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.001163782551884651</v>
+        <v>0.001137910527177155</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.01955323480069637</v>
+        <v>0.003508308669552207</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.007714720442891121</v>
+        <v>0.0004830615362152457</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.02645550481975079</v>
+        <v>4.760501178679988e-05</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.01642259210348129</v>
+        <v>0.0002444314595777541</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.0378350131213665</v>
+        <v>0.0005322230281308293</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.06758880615234375</v>
+        <v>0.001976479310542345</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.02339140884578228</v>
+        <v>0.0003987998061347753</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.04348991811275482</v>
+        <v>0.0009628940606489778</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.02760129235684872</v>
+        <v>0.00125376577489078</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.01374770142138004</v>
+        <v>0.00365735124796629</v>
       </c>
       <c r="EU17" t="n">
-        <v>2.477318048477173e-06</v>
+        <v>0.000104966398794204</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0002829728182405233</v>
+        <v>0.002013314748182893</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.04307352751493454</v>
+        <v>0.0009072042885236442</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.01681885682046413</v>
+        <v>0.0008201942546293139</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.02298692613840103</v>
+        <v>0.002275896025821567</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.04793220013380051</v>
+        <v>0.0003638849884737283</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.02213906683027744</v>
+        <v>0.0008555224630981684</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.02780996263027191</v>
+        <v>0.001872364897280931</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.001217282377183437</v>
+        <v>0.002296597231179476</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.004604246933013201</v>
+        <v>9.906268678605556e-05</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.005548789165914059</v>
+        <v>0.0002030163304880261</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.02809764631092548</v>
+        <v>0.0002601180167403072</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.009849594905972481</v>
+        <v>4.1089893784374e-05</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.01767949946224689</v>
+        <v>0.000905168941244483</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.08339284360408783</v>
+        <v>0.0001835149305406958</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.01837219297885895</v>
+        <v>0.001673851627856493</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.003174251178279519</v>
+        <v>0.001387950265780091</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.03160834312438965</v>
+        <v>0.001385065610520542</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.04455964639782906</v>
+        <v>0.001567155006341636</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.008609532378613949</v>
+        <v>0.0004149394808337092</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.01874793507158756</v>
+        <v>0.0008589130593463778</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.1088722422719002</v>
+        <v>0.001662649912759662</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.03309660404920578</v>
+        <v>0.003932030405849218</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.05645011365413666</v>
+        <v>0.00126069167163223</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.01599440351128578</v>
+        <v>0.002149239415302873</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.03919101506471634</v>
+        <v>0.000188711826922372</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.04894733056426048</v>
+        <v>0.0007708329358138144</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.0008814428001642227</v>
+        <v>0.0007451046258211136</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.02001125738024712</v>
+        <v>0.001742690103128552</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.1079227849841118</v>
+        <v>0.001231344416737556</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02759101614356041</v>
+        <v>0.001220005331560969</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.0153594221919775</v>
+        <v>0.001132052508182824</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.04585276171565056</v>
+        <v>0.0004679912817664444</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.06661787629127502</v>
+        <v>0.0008807388367131352</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.09292397648096085</v>
+        <v>0.007243209518492222</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.009367097169160843</v>
+        <v>0.001765634515322745</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.01795622706413269</v>
+        <v>0.005996008403599262</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.005448679439723492</v>
+        <v>0.000126754748634994</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.02365888655185699</v>
+        <v>0.00129481207113713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.007144897244870663</v>
+        <v>5.398706889536697e-06</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0159250870347023</v>
+        <v>0.0001701334986137226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04804601892828941</v>
+        <v>2.589160430943593e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04467373713850975</v>
+        <v>5.97347752773203e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01364159863442183</v>
+        <v>3.953740088036284e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04233280196785927</v>
+        <v>3.02100415865425e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006591910496354103</v>
+        <v>8.107529720291495e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007475493010133505</v>
+        <v>3.872156867146259e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02321950346231461</v>
+        <v>4.353209988039453e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001252925721928477</v>
+        <v>5.960046109976247e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007841656915843487</v>
+        <v>0.0001316095440415666</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05094541609287262</v>
+        <v>1.020063245960046e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03559393808245659</v>
+        <v>6.175755697768182e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03213424608111382</v>
+        <v>3.867164923576638e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02706104889512062</v>
+        <v>2.195417255279608e-05</v>
       </c>
       <c r="P18" t="n">
-        <v>0.001393025158904493</v>
+        <v>6.967773515498266e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01465238351374865</v>
+        <v>1.646612145123072e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0228373296558857</v>
+        <v>6.034300895407796e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>0.00236237864010036</v>
+        <v>5.551737558562309e-06</v>
       </c>
       <c r="T18" t="n">
-        <v>4.967278800904751e-05</v>
+        <v>4.775061825057492e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004371654242277145</v>
+        <v>6.863966518722009e-06</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01349574513733387</v>
+        <v>2.634279007907026e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01829547248780727</v>
+        <v>4.581758184940554e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.007626505568623543</v>
+        <v>2.880063948396128e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0039266562089324</v>
+        <v>7.004196049820166e-07</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.004179189912974834</v>
+        <v>1.640043956285808e-05</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.001493316609412432</v>
+        <v>7.679835107410327e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01139261201024055</v>
+        <v>2.596399826870766e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00735510466620326</v>
+        <v>3.851551082334481e-05</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01335208304226398</v>
+        <v>1.009042898658663e-05</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.008220717310905457</v>
+        <v>1.225923824677011e-06</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.01870002783834934</v>
+        <v>3.997187377535738e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.002472095657140017</v>
+        <v>1.853098001447506e-05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.001134139951318502</v>
+        <v>1.783665197763185e-07</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.001156954560428858</v>
+        <v>7.278834345925134e-06</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.004023387562483549</v>
+        <v>2.591552402009256e-06</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.00987332034856081</v>
+        <v>2.217720611952245e-05</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.004572859033942223</v>
+        <v>1.081664504454238e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.01034178957343102</v>
+        <v>2.40712165577861e-06</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.006115575321018696</v>
+        <v>1.520090154372156e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.007954330183565617</v>
+        <v>6.966692126297858e-06</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.01003338675945997</v>
+        <v>1.546121893625241e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0007752646342851222</v>
+        <v>7.663322321604937e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.002397805918008089</v>
+        <v>1.626734956516884e-06</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.005599368363618851</v>
+        <v>5.745593171013752e-06</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.01485655084252357</v>
+        <v>2.727833089011256e-05</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.02338313870131969</v>
+        <v>0.0001280023425351828</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.02045678161084652</v>
+        <v>1.610647586858249e-06</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.01148437988013029</v>
+        <v>3.497651778161526e-05</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.003124437760561705</v>
+        <v>8.343131412402727e-06</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.003091637743636966</v>
+        <v>2.138652234862093e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.004530652426183224</v>
+        <v>4.208235623082146e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.002145333448424935</v>
+        <v>2.896545993280597e-06</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.008963738568127155</v>
+        <v>4.118751348869409e-06</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.002443972276523709</v>
+        <v>3.854059286823031e-06</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.006341643631458282</v>
+        <v>5.063760909251869e-05</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.01970358192920685</v>
+        <v>3.082049079239368e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.02150321379303932</v>
+        <v>1.691468969511334e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.00445449398830533</v>
+        <v>1.117909414460883e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.02147125080227852</v>
+        <v>1.473100928706117e-05</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.004227847792208195</v>
+        <v>2.142011726391502e-05</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.009072019718587399</v>
+        <v>2.311714524694253e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0002061622217297554</v>
+        <v>1.149401850852882e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.005561604630202055</v>
+        <v>9.660508112574462e-06</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.01558560784906149</v>
+        <v>3.921624374925159e-05</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.003853830974549055</v>
+        <v>2.557226616772823e-05</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.00816026609390974</v>
+        <v>2.281614251842257e-05</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.01793679594993591</v>
+        <v>6.241426308406517e-05</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.007293211296200752</v>
+        <v>1.409505784977227e-05</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.002113020047545433</v>
+        <v>7.12264773028437e-06</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.001080641057342291</v>
+        <v>1.359271118417382e-05</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.004586546681821346</v>
+        <v>3.147225015709409e-06</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0161273293197155</v>
+        <v>1.177735884994036e-05</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.002455041510984302</v>
+        <v>6.026444316376001e-05</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.01295377127826214</v>
+        <v>2.834707265719771e-05</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.02280040457844734</v>
+        <v>2.96578582492657e-05</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.01184149924665689</v>
+        <v>1.138834795710864e-05</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.01684237644076347</v>
+        <v>2.376735028519761e-05</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.005556866992264986</v>
+        <v>1.785390850272961e-05</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.001790821552276611</v>
+        <v>1.688887277850881e-05</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0141824446618557</v>
+        <v>1.327678091911366e-07</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.01045339927077293</v>
+        <v>4.959612851962447e-06</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.003688353346660733</v>
+        <v>3.449357609497383e-05</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.01037328131496906</v>
+        <v>2.386523192399181e-06</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.008234325796365738</v>
+        <v>9.015521754918154e-06</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.005834728479385376</v>
+        <v>1.646201212679443e-06</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.01062369160354137</v>
+        <v>3.402836910026963e-06</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.001616527908481658</v>
+        <v>1.373212671751389e-05</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.00338834011927247</v>
+        <v>2.201593360950937e-06</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.003902582451701164</v>
+        <v>6.812284709667438e-07</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.00603540800511837</v>
+        <v>3.954713611165062e-05</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.003698545042425394</v>
+        <v>5.562650767387822e-05</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.006047466769814491</v>
+        <v>1.298072675126605e-06</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.0148748904466629</v>
+        <v>4.907263246423099e-06</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.008871456608176231</v>
+        <v>6.481770833488554e-05</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.02189461514353752</v>
+        <v>3.48960020346567e-05</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.004579902626574039</v>
+        <v>1.309306207986083e-05</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.01831981912255287</v>
+        <v>9.436894288228359e-06</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.001334013417363167</v>
+        <v>2.528785444155801e-05</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.009732406586408615</v>
+        <v>7.620062206115108e-06</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.005368458572775126</v>
+        <v>2.67479208559962e-05</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.0104867797344923</v>
+        <v>1.108016567741288e-05</v>
       </c>
       <c r="CY18" t="n">
-        <v>0.007752349600195885</v>
+        <v>1.643181894905865e-05</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.002806420205160975</v>
+        <v>4.214321904782992e-07</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.01163371745496988</v>
+        <v>2.519215513530071e-06</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.0001855400041677058</v>
+        <v>1.160779629572062e-05</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.002865500282496214</v>
+        <v>3.207506551916595e-06</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.004793468397110701</v>
+        <v>1.276031298402813e-06</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.01368417218327522</v>
+        <v>1.640818481973838e-05</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.01031752675771713</v>
+        <v>9.595372102921829e-05</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.00535919051617384</v>
+        <v>2.943810795841273e-05</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.00514669343829155</v>
+        <v>1.878701004898176e-05</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.01154665090143681</v>
+        <v>1.936489024956245e-05</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.006046166643500328</v>
+        <v>2.270353979838546e-05</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0009427650365978479</v>
+        <v>1.422186869604047e-05</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.009459538385272026</v>
+        <v>1.113202324631857e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.01284994464367628</v>
+        <v>2.498074718459975e-05</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.006522295996546745</v>
+        <v>9.043717000167817e-06</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.001856001908890903</v>
+        <v>3.346415178384632e-05</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.0006873970851302147</v>
+        <v>8.788509148871526e-06</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.00343155674636364</v>
+        <v>1.063553827407304e-05</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.01351965591311455</v>
+        <v>6.949869657546515e-06</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.01417742669582367</v>
+        <v>9.174596925731748e-06</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.003531299065798521</v>
+        <v>1.840869481384289e-05</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.002205495722591877</v>
+        <v>7.892111170804128e-06</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.008365252986550331</v>
+        <v>8.793030247034039e-06</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.002130597596988082</v>
+        <v>8.759634511079639e-07</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.009852845221757889</v>
+        <v>2.052308991551399e-05</v>
       </c>
       <c r="DY18" t="n">
-        <v>0.005326978396624327</v>
+        <v>5.000496912543895e-06</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.00295084435492754</v>
+        <v>1.439155767002376e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.008385405875742435</v>
+        <v>2.786322511383332e-05</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.006642397493124008</v>
+        <v>1.596896618138999e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.001533100847154856</v>
+        <v>6.386061613739002e-06</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.00402232026681304</v>
+        <v>1.667302285568439e-06</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.001015795511193573</v>
+        <v>4.367196197563317e-06</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.01103212870657444</v>
+        <v>1.61407733685337e-05</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.007086342666298151</v>
+        <v>9.502798093308229e-06</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.01279820129275322</v>
+        <v>2.949432428067666e-06</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.01067682076245546</v>
+        <v>3.527346780174412e-05</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.002654070034623146</v>
+        <v>8.819518370728474e-06</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.01208335533738136</v>
+        <v>3.343410298839444e-06</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0002501617127563804</v>
+        <v>1.01830610219622e-05</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.003791205119341612</v>
+        <v>6.992698899921379e-07</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.003798920195549726</v>
+        <v>6.464650255111337e-07</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.009688489139080048</v>
+        <v>1.651973252592143e-05</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.009316710755228996</v>
+        <v>6.166460480017122e-06</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.002693357644602656</v>
+        <v>1.742235144774895e-05</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.00528192613273859</v>
+        <v>1.575316673552152e-05</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.01039804611355066</v>
+        <v>1.116227576858364e-05</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.009914274327456951</v>
+        <v>2.656683136592619e-06</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.001815062249079347</v>
+        <v>4.176684342382941e-06</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.003555855480954051</v>
+        <v>1.480334617554036e-06</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0007684146985411644</v>
+        <v>2.000642325583613e-06</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.009479226544499397</v>
+        <v>7.670948434679303e-06</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.00665022199973464</v>
+        <v>2.735355337790679e-05</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.01028745342046022</v>
+        <v>4.761916898132768e-06</v>
       </c>
       <c r="FA18" t="n">
-        <v>0.006881654728204012</v>
+        <v>1.154731580754742e-05</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.005072532221674919</v>
+        <v>2.18358604797686e-06</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.0121106319129467</v>
+        <v>6.509535069199046e-06</v>
       </c>
       <c r="FD18" t="n">
-        <v>8.437367068836465e-05</v>
+        <v>1.224784136866219e-05</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.004436775110661983</v>
+        <v>6.595845661649946e-06</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.004464199766516685</v>
+        <v>5.355789198802086e-07</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.002025966765359044</v>
+        <v>9.506155947747175e-06</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.00402218010276556</v>
+        <v>3.160843334626406e-06</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.01124648284167051</v>
+        <v>4.515286491368897e-06</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.003621242241933942</v>
+        <v>1.14582526293816e-05</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.006409319117665291</v>
+        <v>3.039612420252524e-05</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.004334927536547184</v>
+        <v>1.986770439543761e-05</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.001488317968323827</v>
+        <v>7.340208867390174e-06</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0001488334964960814</v>
+        <v>1.026860081765335e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.003723304718732834</v>
+        <v>4.279809218132868e-06</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.007159494794905186</v>
+        <v>1.188237183669116e-05</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.008405478671193123</v>
+        <v>2.219252928625792e-05</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.007353964261710644</v>
+        <v>1.195840013679117e-05</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.009620948694646358</v>
+        <v>3.646427285275422e-05</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.006576417945325375</v>
+        <v>7.653775355720427e-06</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.01423071790486574</v>
+        <v>1.062970795828733e-06</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.006502749864012003</v>
+        <v>2.879111343645491e-05</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.009752450510859489</v>
+        <v>3.25471737596672e-05</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.007948770187795162</v>
+        <v>8.425331543548964e-08</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.007688887417316437</v>
+        <v>7.04646845406387e-06</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.0046665552072227</v>
+        <v>2.096716161759105e-05</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.003977201879024506</v>
+        <v>1.667060132604092e-05</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.005780813284218311</v>
+        <v>2.046216832241043e-05</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.006844096351414919</v>
+        <v>8.850494850776158e-06</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.002091803820803761</v>
+        <v>1.391830664942972e-05</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.0004680873826146126</v>
+        <v>9.219809726346284e-06</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.0002302506472915411</v>
+        <v>2.388520806562155e-05</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.01645584218204021</v>
+        <v>2.994071337525384e-06</v>
       </c>
     </row>
     <row r="19">
@@ -11246,571 +11246,571 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.897836722899228e-05</v>
+        <v>0.003691310063004494</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002991338493302464</v>
+        <v>0.03285301849246025</v>
       </c>
       <c r="C20" t="n">
-        <v>1.069103018380702e-05</v>
+        <v>0.009637106209993362</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006195760797709227</v>
+        <v>0.00437565054744482</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007037766627036035</v>
+        <v>0.06435952335596085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002148839877918363</v>
+        <v>0.009351183660328388</v>
       </c>
       <c r="G20" t="n">
-        <v>9.528839291306213e-05</v>
+        <v>0.0246356800198555</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009484073962084949</v>
+        <v>0.01915368624031544</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001157316291937605</v>
+        <v>0.009005802683532238</v>
       </c>
       <c r="J20" t="n">
-        <v>8.729315595701337e-06</v>
+        <v>0.009018959477543831</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002965090563520789</v>
+        <v>0.0187781285494566</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001290410291403532</v>
+        <v>0.004888697527348995</v>
       </c>
       <c r="M20" t="n">
-        <v>6.150491390144452e-05</v>
+        <v>0.003046846017241478</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0004126033163629472</v>
+        <v>0.05590394511818886</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002241527661681175</v>
+        <v>0.006198430433869362</v>
       </c>
       <c r="P20" t="n">
-        <v>0.000486221571918577</v>
+        <v>0.01239414885640144</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0009039079304784536</v>
+        <v>0.02138173580169678</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0003210144932381809</v>
+        <v>0.01504057459533215</v>
       </c>
       <c r="S20" t="n">
-        <v>0.000367350789019838</v>
+        <v>0.005156927742063999</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0002240384055767208</v>
+        <v>0.002546505304053426</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0001694468955975026</v>
+        <v>0.0045714913867414</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0003132901329081506</v>
+        <v>0.009894684888422489</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0005053854547441006</v>
+        <v>0.02680009044706821</v>
       </c>
       <c r="X20" t="n">
-        <v>8.022472320590168e-05</v>
+        <v>0.004868544638156891</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0003593087894842029</v>
+        <v>0.009719434194266796</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.239244738826528e-05</v>
+        <v>0.003615378635004163</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0005810429574921727</v>
+        <v>0.0004398580640554428</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0002019310195464641</v>
+        <v>0.00203522783704102</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.001055482774972916</v>
+        <v>0.007363473065197468</v>
       </c>
       <c r="AD20" t="n">
-        <v>4.787106445292011e-05</v>
+        <v>0.0009932585526257753</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.463423339184374e-06</v>
+        <v>0.01017113402485847</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0003790953196585178</v>
+        <v>0.007476140279322863</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.660240327008069e-05</v>
+        <v>0.006316661834716797</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0001012102438835427</v>
+        <v>0.00150047882925719</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.0003159842453896999</v>
+        <v>0.004303152672946453</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0003855551476590335</v>
+        <v>0.005069179460406303</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0001774693664629012</v>
+        <v>0.001620264491066337</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0004486344405449927</v>
+        <v>0.01499222312122583</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.054531771340407e-05</v>
+        <v>0.006326977163553238</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0003628273261711001</v>
+        <v>0.01360508985817432</v>
       </c>
       <c r="AO20" t="n">
-        <v>3.641376679297537e-05</v>
+        <v>0.002340633422136307</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.0004524294345173985</v>
+        <v>0.008510024286806583</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.623241380206309e-05</v>
+        <v>0.006050919182598591</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0001224566221935675</v>
+        <v>0.0006069489754736423</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0001008475592243485</v>
+        <v>0.0001997650979319587</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.0002441795077174902</v>
+        <v>0.0004948361311107874</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.001466989400796592</v>
+        <v>0.02167940884828568</v>
       </c>
       <c r="AV20" t="n">
-        <v>5.348643753677607e-06</v>
+        <v>0.005355491302907467</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0004482947988435626</v>
+        <v>0.00832027941942215</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.0006690092850476503</v>
+        <v>0.03962846100330353</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.00102943042293191</v>
+        <v>0.01033537741750479</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.0005070088081993163</v>
+        <v>0.009901511482894421</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0005107128527015448</v>
+        <v>0.006248476915061474</v>
       </c>
       <c r="BB20" t="n">
-        <v>7.805746281519532e-05</v>
+        <v>0.005526914726942778</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.0007563862600363791</v>
+        <v>0.002285311231389642</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.0008762963698245585</v>
+        <v>0.0004603606648743153</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.0001832269481383264</v>
+        <v>0.01264334563165903</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.0005356511101126671</v>
+        <v>0.02280539087951183</v>
       </c>
       <c r="BG20" t="n">
-        <v>7.803008338669315e-05</v>
+        <v>0.04522626847028732</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.0004633522476069629</v>
+        <v>0.0004514867905527353</v>
       </c>
       <c r="BI20" t="n">
-        <v>9.41132238949649e-05</v>
+        <v>0.00770110497251153</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.000233574362937361</v>
+        <v>0.01685077138245106</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.0004874242004007101</v>
+        <v>0.003678599605336785</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.0002763129305094481</v>
+        <v>0.008036239072680473</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.0002149078354705125</v>
+        <v>0.01008350774645805</v>
       </c>
       <c r="BN20" t="n">
-        <v>8.532911306247115e-05</v>
+        <v>0.009946098551154137</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.0007935909670777619</v>
+        <v>0.01311728917062283</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0003671983722597361</v>
+        <v>0.01370138954371214</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.0007136014755815268</v>
+        <v>0.006074828561395407</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.0003215215401723981</v>
+        <v>0.01077057048678398</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.000440687668742612</v>
+        <v>0.01346674375236034</v>
       </c>
       <c r="BT20" t="n">
-        <v>9.419655543752015e-05</v>
+        <v>0.0005680351750925183</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.0001220147532876581</v>
+        <v>0.003080518217757344</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.0006253194878809154</v>
+        <v>0.02176864817738533</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.0001962462411029264</v>
+        <v>0.004500612150877714</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.000344256084645167</v>
+        <v>0.000400289602112025</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.0001039877170114778</v>
+        <v>0.02357691898941994</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.001124730100855231</v>
+        <v>0.005284410435706377</v>
       </c>
       <c r="CA20" t="n">
-        <v>9.3361537437886e-05</v>
+        <v>0.004810811951756477</v>
       </c>
       <c r="CB20" t="n">
-        <v>6.414759263861924e-05</v>
+        <v>0.0001715529360808432</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.0001797963486751541</v>
+        <v>0.004042143933475018</v>
       </c>
       <c r="CD20" t="n">
-        <v>9.961789328372106e-05</v>
+        <v>0.002016685903072357</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.0006239826907403767</v>
+        <v>0.002192578511312604</v>
       </c>
       <c r="CF20" t="n">
-        <v>4.233732761349529e-05</v>
+        <v>0.007467273157089949</v>
       </c>
       <c r="CG20" t="n">
-        <v>2.271979610668495e-05</v>
+        <v>0.007999761961400509</v>
       </c>
       <c r="CH20" t="n">
-        <v>5.186357884667814e-05</v>
+        <v>0.008814679458737373</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.0002649335656315088</v>
+        <v>0.00186417973600328</v>
       </c>
       <c r="CJ20" t="n">
-        <v>4.097146666026674e-05</v>
+        <v>0.000947197200730443</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.0002074722433462739</v>
+        <v>0.0004857349849771708</v>
       </c>
       <c r="CL20" t="n">
-        <v>5.046233491157182e-05</v>
+        <v>0.002561022527515888</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.0002088466426357627</v>
+        <v>0.0003640632494352758</v>
       </c>
       <c r="CN20" t="n">
-        <v>8.67023118189536e-05</v>
+        <v>0.007351938169449568</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.0001607929880265146</v>
+        <v>0.002423223108053207</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.0001124581904150546</v>
+        <v>0.03200944885611534</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0004116078489460051</v>
+        <v>0.03149474784731865</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.0002515626547392458</v>
+        <v>0.005909531377255917</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.0001879611081676558</v>
+        <v>0.0162998866289854</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0006183554069139063</v>
+        <v>0.002006105612963438</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.0005109298508614302</v>
+        <v>0.006170055363327265</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.0002318370097782463</v>
+        <v>0.002805095165967941</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.0004513869062066078</v>
+        <v>0.00083694834029302</v>
       </c>
       <c r="CX20" t="n">
-        <v>5.807988782180473e-05</v>
+        <v>0.007307462394237518</v>
       </c>
       <c r="CY20" t="n">
-        <v>6.589901749975979e-05</v>
+        <v>0.003365966491401196</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.000116073148092255</v>
+        <v>0.009069132618606091</v>
       </c>
       <c r="DA20" t="n">
-        <v>0.0003770499024540186</v>
+        <v>0.005127304699271917</v>
       </c>
       <c r="DB20" t="n">
-        <v>1.750698538671713e-05</v>
+        <v>0.002358099911361933</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.0001741221349220723</v>
+        <v>0.0008459843811579049</v>
       </c>
       <c r="DD20" t="n">
-        <v>7.6370379247237e-06</v>
+        <v>0.004931782372295856</v>
       </c>
       <c r="DE20" t="n">
-        <v>4.291007644496858e-05</v>
+        <v>0.001779540674760938</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.001226389431394637</v>
+        <v>0.01234076917171478</v>
       </c>
       <c r="DG20" t="n">
-        <v>8.794473251327872e-05</v>
+        <v>0.007075993344187737</v>
       </c>
       <c r="DH20" t="n">
-        <v>5.804925967822783e-05</v>
+        <v>0.005452126264572144</v>
       </c>
       <c r="DI20" t="n">
-        <v>0.0007662749849259853</v>
+        <v>0.03519259765744209</v>
       </c>
       <c r="DJ20" t="n">
-        <v>0.0003534834540914744</v>
+        <v>0.008428367786109447</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.0007166815339587629</v>
+        <v>0.01414991449564695</v>
       </c>
       <c r="DL20" t="n">
-        <v>0.0002334994787815958</v>
+        <v>0.0232841968536377</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.0001056764012901112</v>
+        <v>0.00948125496506691</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.0002899868704844266</v>
+        <v>0.01007058657705784</v>
       </c>
       <c r="DO20" t="n">
-        <v>7.295882824109867e-05</v>
+        <v>0.006456479895859957</v>
       </c>
       <c r="DP20" t="n">
-        <v>9.675198816694319e-05</v>
+        <v>0.01376697141677141</v>
       </c>
       <c r="DQ20" t="n">
-        <v>0.0001032689106068574</v>
+        <v>0.02502709813416004</v>
       </c>
       <c r="DR20" t="n">
-        <v>0.0003484835324343294</v>
+        <v>0.01761998794972897</v>
       </c>
       <c r="DS20" t="n">
-        <v>6.876744009787217e-05</v>
+        <v>0.0009425271418876946</v>
       </c>
       <c r="DT20" t="n">
-        <v>0.0001884586090454832</v>
+        <v>0.003581241006031632</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.000833587720990181</v>
+        <v>0.008996397256851196</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.000759085058234632</v>
+        <v>0.001334686297923326</v>
       </c>
       <c r="DW20" t="n">
-        <v>0.0003836873511318117</v>
+        <v>0.002968584420159459</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.0003447268099989742</v>
+        <v>0.007684271316975355</v>
       </c>
       <c r="DY20" t="n">
-        <v>0.0003209494170732796</v>
+        <v>0.006273928098380566</v>
       </c>
       <c r="DZ20" t="n">
-        <v>7.245929737109691e-05</v>
+        <v>0.001220782520249486</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.0004496963229030371</v>
+        <v>0.003512651892378926</v>
       </c>
       <c r="EB20" t="n">
-        <v>0.0003996526647824794</v>
+        <v>0.01178785692900419</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.0002441999968141317</v>
+        <v>0.0112916836515069</v>
       </c>
       <c r="ED20" t="n">
-        <v>0.0001167474474641494</v>
+        <v>0.0172226894646883</v>
       </c>
       <c r="EE20" t="n">
-        <v>0.0008866764837875962</v>
+        <v>0.001450450043193996</v>
       </c>
       <c r="EF20" t="n">
-        <v>0.0001728154311422259</v>
+        <v>0.002384645398706198</v>
       </c>
       <c r="EG20" t="n">
-        <v>0.0005596727132797241</v>
+        <v>0.001804560655727983</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.0006549072568304837</v>
+        <v>0.001847232109867036</v>
       </c>
       <c r="EI20" t="n">
-        <v>6.280569505179301e-05</v>
+        <v>0.007626327220350504</v>
       </c>
       <c r="EJ20" t="n">
-        <v>0.0003954682033509016</v>
+        <v>0.008515843190252781</v>
       </c>
       <c r="EK20" t="n">
-        <v>0.0001658903493080288</v>
+        <v>0.001963167684152722</v>
       </c>
       <c r="EL20" t="n">
-        <v>0.0004283034650143236</v>
+        <v>0.004535346291959286</v>
       </c>
       <c r="EM20" t="n">
-        <v>0.0003647508565336466</v>
+        <v>0.003875192254781723</v>
       </c>
       <c r="EN20" t="n">
-        <v>0.0003631356812547892</v>
+        <v>0.004928899928927422</v>
       </c>
       <c r="EO20" t="n">
-        <v>0.0001503853709436953</v>
+        <v>0.0005894743953831494</v>
       </c>
       <c r="EP20" t="n">
-        <v>0.0002973576774820685</v>
+        <v>0.004094384610652924</v>
       </c>
       <c r="EQ20" t="n">
-        <v>3.451095835771412e-05</v>
+        <v>0.003815934527665377</v>
       </c>
       <c r="ER20" t="n">
-        <v>0.0005288059473969042</v>
+        <v>0.003594171954318881</v>
       </c>
       <c r="ES20" t="n">
-        <v>0.0004041909123770893</v>
+        <v>0.002907785354182124</v>
       </c>
       <c r="ET20" t="n">
-        <v>0.0003663835523184389</v>
+        <v>0.02003925479948521</v>
       </c>
       <c r="EU20" t="n">
-        <v>4.432593050296418e-05</v>
+        <v>0.004367796704173088</v>
       </c>
       <c r="EV20" t="n">
-        <v>0.0001252173096872866</v>
+        <v>0.001595492009073496</v>
       </c>
       <c r="EW20" t="n">
-        <v>0.0002619181468617171</v>
+        <v>0.001191878225654364</v>
       </c>
       <c r="EX20" t="n">
-        <v>0.0001269031781703234</v>
+        <v>0.003702521324157715</v>
       </c>
       <c r="EY20" t="n">
-        <v>0.0005499356193467975</v>
+        <v>0.001872071297839284</v>
       </c>
       <c r="EZ20" t="n">
-        <v>3.232278686482459e-05</v>
+        <v>0.007653862237930298</v>
       </c>
       <c r="FA20" t="n">
-        <v>4.120140874874778e-05</v>
+        <v>0.006249615922570229</v>
       </c>
       <c r="FB20" t="n">
-        <v>0.0001682171714492142</v>
+        <v>0.007100202608853579</v>
       </c>
       <c r="FC20" t="n">
-        <v>0.0004296352562960237</v>
+        <v>0.003118427470326424</v>
       </c>
       <c r="FD20" t="n">
-        <v>2.509169280529022e-05</v>
+        <v>0.0002948454348370433</v>
       </c>
       <c r="FE20" t="n">
-        <v>0.0001883363875094801</v>
+        <v>0.003595009446144104</v>
       </c>
       <c r="FF20" t="n">
-        <v>7.328083302127197e-05</v>
+        <v>0.002809168072417378</v>
       </c>
       <c r="FG20" t="n">
-        <v>0.0005946874152868986</v>
+        <v>0.003726283088326454</v>
       </c>
       <c r="FH20" t="n">
-        <v>0.0002238952438347042</v>
+        <v>0.02121712081134319</v>
       </c>
       <c r="FI20" t="n">
-        <v>0.0005622945609502494</v>
+        <v>0.008365153335034847</v>
       </c>
       <c r="FJ20" t="n">
-        <v>0.0004428224929142743</v>
+        <v>0.0008451670873910189</v>
       </c>
       <c r="FK20" t="n">
-        <v>9.510276140645146e-05</v>
+        <v>0.007234991993755102</v>
       </c>
       <c r="FL20" t="n">
-        <v>0.0001053448868333362</v>
+        <v>0.001730120275169611</v>
       </c>
       <c r="FM20" t="n">
-        <v>0.0004407663072925061</v>
+        <v>0.009492751210927963</v>
       </c>
       <c r="FN20" t="n">
-        <v>0.0003651987062767148</v>
+        <v>0.005629715044051409</v>
       </c>
       <c r="FO20" t="n">
-        <v>0.0002965432358905673</v>
+        <v>0.002147657098248601</v>
       </c>
       <c r="FP20" t="n">
-        <v>0.0001598642993485555</v>
+        <v>0.003625574987381697</v>
       </c>
       <c r="FQ20" t="n">
-        <v>7.576805364806205e-05</v>
+        <v>0.0155944311991334</v>
       </c>
       <c r="FR20" t="n">
-        <v>0.0001549528969917446</v>
+        <v>0.005461765453219414</v>
       </c>
       <c r="FS20" t="n">
-        <v>0.0007683223229832947</v>
+        <v>0.01572473160922527</v>
       </c>
       <c r="FT20" t="n">
-        <v>0.000186055272934027</v>
+        <v>0.02522667124867439</v>
       </c>
       <c r="FU20" t="n">
-        <v>0.0006347046582959592</v>
+        <v>0.003314519533887506</v>
       </c>
       <c r="FV20" t="n">
-        <v>1.929998688865453e-06</v>
+        <v>0.0154313500970602</v>
       </c>
       <c r="FW20" t="n">
-        <v>0.0001542781828902662</v>
+        <v>0.01088814344257116</v>
       </c>
       <c r="FX20" t="n">
-        <v>0.0001322073803748935</v>
+        <v>0.004651794675737619</v>
       </c>
       <c r="FY20" t="n">
-        <v>0.0002888258313760161</v>
+        <v>0.01041767001152039</v>
       </c>
       <c r="FZ20" t="n">
-        <v>8.325730595970526e-05</v>
+        <v>0.003366722958162427</v>
       </c>
       <c r="GA20" t="n">
-        <v>0.0001125804483308457</v>
+        <v>0.01280129700899124</v>
       </c>
       <c r="GB20" t="n">
-        <v>0.000460653769550845</v>
+        <v>0.005668715573847294</v>
       </c>
       <c r="GC20" t="n">
-        <v>6.227645644685254e-05</v>
+        <v>0.03148693218827248</v>
       </c>
       <c r="GD20" t="n">
-        <v>0.0001568311272421852</v>
+        <v>0.008654342964291573</v>
       </c>
       <c r="GE20" t="n">
-        <v>0.0004347698413766921</v>
+        <v>0.004793319385498762</v>
       </c>
       <c r="GF20" t="n">
-        <v>0.0005460836691781878</v>
+        <v>0.005207810085266829</v>
       </c>
       <c r="GG20" t="n">
-        <v>7.851627742638811e-06</v>
+        <v>0.00327953090891242</v>
       </c>
     </row>
   </sheetData>
